--- a/X-RAY打点机项目.xlsx
+++ b/X-RAY打点机项目.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="IO表" sheetId="1" r:id="rId1"/>
     <sheet name="编程规划" sheetId="2" r:id="rId2"/>
     <sheet name="1" sheetId="3" r:id="rId3"/>
+    <sheet name="电机参数" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="1216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="1222">
   <si>
     <t>序号</t>
   </si>
@@ -3783,6 +3784,30 @@
   </si>
   <si>
     <t>调试复位气缸动作延时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码器分辨率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pls</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高频率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hz</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3876,10 +3901,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4316,22 +4341,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -4810,8 +4835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4849,43 +4874,43 @@
       <c r="D1" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>578</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>588</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>690</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>709</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>810</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>816</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="7" t="s">
         <v>817</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="7" t="s">
         <v>818</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>944</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="7" t="s">
         <v>1004</v>
       </c>
       <c r="R1" s="5" t="s">
@@ -4903,39 +4928,39 @@
         <v>181</v>
       </c>
       <c r="D2" s="5"/>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>453</v>
       </c>
       <c r="H2" s="5"/>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>589</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>688</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="7" t="s">
         <v>710</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>813</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="7" t="s">
         <v>1190</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>1210</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="7" t="s">
         <v>819</v>
       </c>
       <c r="P2" s="5"/>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="7" t="s">
         <v>1006</v>
       </c>
       <c r="R2" s="5"/>
@@ -4953,43 +4978,43 @@
       <c r="D3" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>689</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="7" t="s">
         <v>711</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>813</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="7" t="s">
         <v>1191</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>1211</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="7" t="s">
         <v>820</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>945</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="Q3" s="7" t="s">
         <v>1007</v>
       </c>
       <c r="R3" s="5" t="s">
@@ -5007,39 +5032,39 @@
         <v>183</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>455</v>
       </c>
       <c r="H4" s="5"/>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="7" t="s">
         <v>811</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="7" t="s">
         <v>712</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>1214</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="7" t="s">
         <v>1192</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>1212</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="O4" s="7" t="s">
         <v>821</v>
       </c>
       <c r="P4" s="5"/>
-      <c r="Q4" s="8" t="s">
+      <c r="Q4" s="7" t="s">
         <v>1008</v>
       </c>
       <c r="R4" s="5"/>
@@ -5055,43 +5080,43 @@
       <c r="D5" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="7" t="s">
         <v>692</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="7" t="s">
         <v>812</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="7" t="s">
         <v>713</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>1214</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="7" t="s">
         <v>1193</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>1213</v>
       </c>
-      <c r="O5" s="8" t="s">
+      <c r="O5" s="7" t="s">
         <v>822</v>
       </c>
       <c r="P5" s="5" t="s">
         <v>946</v>
       </c>
-      <c r="Q5" s="8" t="s">
+      <c r="Q5" s="7" t="s">
         <v>1009</v>
       </c>
       <c r="R5" s="5" t="s">
@@ -5107,35 +5132,35 @@
         <v>185</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>457</v>
       </c>
       <c r="H6" s="5"/>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="7" t="s">
         <v>593</v>
       </c>
       <c r="J6" s="5"/>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="7" t="s">
         <v>714</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>1215</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="7" t="s">
         <v>1194</v>
       </c>
       <c r="N6" s="5"/>
-      <c r="O6" s="8" t="s">
+      <c r="O6" s="7" t="s">
         <v>823</v>
       </c>
       <c r="P6" s="5"/>
-      <c r="Q6" s="8" t="s">
+      <c r="Q6" s="7" t="s">
         <v>1010</v>
       </c>
       <c r="R6" s="5"/>
@@ -5151,35 +5176,35 @@
       <c r="D7" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>324</v>
       </c>
       <c r="F7" s="5"/>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="7" t="s">
         <v>693</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="7" t="s">
         <v>594</v>
       </c>
       <c r="J7" s="5"/>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="7" t="s">
         <v>715</v>
       </c>
       <c r="L7" s="5"/>
-      <c r="M7" s="8" t="s">
+      <c r="M7" s="7" t="s">
         <v>1195</v>
       </c>
       <c r="N7" s="5"/>
-      <c r="O7" s="8" t="s">
+      <c r="O7" s="7" t="s">
         <v>824</v>
       </c>
       <c r="P7" s="5" t="s">
         <v>947</v>
       </c>
-      <c r="Q7" s="8" t="s">
+      <c r="Q7" s="7" t="s">
         <v>1011</v>
       </c>
       <c r="R7" s="5" t="s">
@@ -5195,31 +5220,31 @@
         <v>187</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>325</v>
       </c>
       <c r="F8" s="5"/>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="7" t="s">
         <v>459</v>
       </c>
       <c r="H8" s="5"/>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="7" t="s">
         <v>595</v>
       </c>
       <c r="J8" s="5"/>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="7" t="s">
         <v>716</v>
       </c>
       <c r="L8" s="5"/>
-      <c r="M8" s="8" t="s">
+      <c r="M8" s="7" t="s">
         <v>1196</v>
       </c>
       <c r="N8" s="5"/>
-      <c r="O8" s="8" t="s">
+      <c r="O8" s="7" t="s">
         <v>825</v>
       </c>
       <c r="P8" s="5"/>
-      <c r="Q8" s="8" t="s">
+      <c r="Q8" s="7" t="s">
         <v>1012</v>
       </c>
       <c r="R8" s="5"/>
@@ -5233,33 +5258,33 @@
         <v>188</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>326</v>
       </c>
       <c r="F9" s="5"/>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="7" t="s">
         <v>460</v>
       </c>
       <c r="H9" s="5"/>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="7" t="s">
         <v>596</v>
       </c>
       <c r="J9" s="5"/>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="7" t="s">
         <v>717</v>
       </c>
       <c r="L9" s="5"/>
-      <c r="M9" s="8" t="s">
+      <c r="M9" s="7" t="s">
         <v>1197</v>
       </c>
       <c r="N9" s="5"/>
-      <c r="O9" s="8" t="s">
+      <c r="O9" s="7" t="s">
         <v>826</v>
       </c>
       <c r="P9" s="5" t="s">
         <v>948</v>
       </c>
-      <c r="Q9" s="8" t="s">
+      <c r="Q9" s="7" t="s">
         <v>1013</v>
       </c>
       <c r="R9" s="5" t="s">
@@ -5275,31 +5300,31 @@
         <v>189</v>
       </c>
       <c r="D10" s="5"/>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>327</v>
       </c>
       <c r="F10" s="5"/>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="7" t="s">
         <v>461</v>
       </c>
       <c r="H10" s="5"/>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="7" t="s">
         <v>597</v>
       </c>
       <c r="J10" s="5"/>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="7" t="s">
         <v>718</v>
       </c>
       <c r="L10" s="5"/>
-      <c r="M10" s="8" t="s">
+      <c r="M10" s="7" t="s">
         <v>1198</v>
       </c>
       <c r="N10" s="5"/>
-      <c r="O10" s="8" t="s">
+      <c r="O10" s="7" t="s">
         <v>827</v>
       </c>
       <c r="P10" s="5"/>
-      <c r="Q10" s="8" t="s">
+      <c r="Q10" s="7" t="s">
         <v>1014</v>
       </c>
       <c r="R10" s="5"/>
@@ -5317,35 +5342,35 @@
       <c r="D11" s="5" t="s">
         <v>814</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>328</v>
       </c>
       <c r="F11" s="5"/>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="7" t="s">
         <v>462</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="7" t="s">
         <v>598</v>
       </c>
       <c r="J11" s="5"/>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="7" t="s">
         <v>719</v>
       </c>
       <c r="L11" s="5"/>
-      <c r="M11" s="8" t="s">
+      <c r="M11" s="7" t="s">
         <v>1199</v>
       </c>
       <c r="N11" s="5"/>
-      <c r="O11" s="8" t="s">
+      <c r="O11" s="7" t="s">
         <v>828</v>
       </c>
       <c r="P11" s="5" t="s">
         <v>949</v>
       </c>
-      <c r="Q11" s="8" t="s">
+      <c r="Q11" s="7" t="s">
         <v>1015</v>
       </c>
       <c r="R11" s="5" t="s">
@@ -5363,31 +5388,31 @@
         <v>191</v>
       </c>
       <c r="D12" s="5"/>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="7" t="s">
         <v>329</v>
       </c>
       <c r="F12" s="5"/>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="7" t="s">
         <v>463</v>
       </c>
       <c r="H12" s="5"/>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="7" t="s">
         <v>599</v>
       </c>
       <c r="J12" s="5"/>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="7" t="s">
         <v>720</v>
       </c>
       <c r="L12" s="5"/>
-      <c r="M12" s="8" t="s">
+      <c r="M12" s="7" t="s">
         <v>1200</v>
       </c>
       <c r="N12" s="5"/>
-      <c r="O12" s="8" t="s">
+      <c r="O12" s="7" t="s">
         <v>829</v>
       </c>
       <c r="P12" s="5"/>
-      <c r="Q12" s="8" t="s">
+      <c r="Q12" s="7" t="s">
         <v>1016</v>
       </c>
       <c r="R12" s="5"/>
@@ -5401,33 +5426,33 @@
         <v>192</v>
       </c>
       <c r="D13" s="5"/>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>330</v>
       </c>
       <c r="F13" s="5"/>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="7" t="s">
         <v>464</v>
       </c>
       <c r="H13" s="5"/>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="7" t="s">
         <v>600</v>
       </c>
       <c r="J13" s="5"/>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="7" t="s">
         <v>721</v>
       </c>
       <c r="L13" s="5"/>
-      <c r="M13" s="8" t="s">
+      <c r="M13" s="7" t="s">
         <v>1201</v>
       </c>
       <c r="N13" s="5"/>
-      <c r="O13" s="8" t="s">
+      <c r="O13" s="7" t="s">
         <v>830</v>
       </c>
       <c r="P13" s="5" t="s">
         <v>950</v>
       </c>
-      <c r="Q13" s="8" t="s">
+      <c r="Q13" s="7" t="s">
         <v>1017</v>
       </c>
       <c r="R13" s="5" t="s">
@@ -5443,31 +5468,31 @@
         <v>193</v>
       </c>
       <c r="D14" s="5"/>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>331</v>
       </c>
       <c r="F14" s="5"/>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="7" t="s">
         <v>465</v>
       </c>
       <c r="H14" s="5"/>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="7" t="s">
         <v>601</v>
       </c>
       <c r="J14" s="5"/>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="7" t="s">
         <v>722</v>
       </c>
       <c r="L14" s="5"/>
-      <c r="M14" s="8" t="s">
+      <c r="M14" s="7" t="s">
         <v>1202</v>
       </c>
       <c r="N14" s="5"/>
-      <c r="O14" s="8" t="s">
+      <c r="O14" s="7" t="s">
         <v>831</v>
       </c>
       <c r="P14" s="5"/>
-      <c r="Q14" s="8" t="s">
+      <c r="Q14" s="7" t="s">
         <v>1018</v>
       </c>
       <c r="R14" s="5"/>
@@ -5481,33 +5506,33 @@
         <v>194</v>
       </c>
       <c r="D15" s="5"/>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>332</v>
       </c>
       <c r="F15" s="5"/>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="7" t="s">
         <v>466</v>
       </c>
       <c r="H15" s="5"/>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="7" t="s">
         <v>602</v>
       </c>
       <c r="J15" s="5"/>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="7" t="s">
         <v>723</v>
       </c>
       <c r="L15" s="5"/>
-      <c r="M15" s="8" t="s">
+      <c r="M15" s="7" t="s">
         <v>1203</v>
       </c>
       <c r="N15" s="5"/>
-      <c r="O15" s="8" t="s">
+      <c r="O15" s="7" t="s">
         <v>832</v>
       </c>
       <c r="P15" s="5" t="s">
         <v>951</v>
       </c>
-      <c r="Q15" s="8" t="s">
+      <c r="Q15" s="7" t="s">
         <v>1019</v>
       </c>
       <c r="R15" s="5" t="s">
@@ -5523,31 +5548,31 @@
         <v>195</v>
       </c>
       <c r="D16" s="5"/>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="7" t="s">
         <v>333</v>
       </c>
       <c r="F16" s="5"/>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="7" t="s">
         <v>467</v>
       </c>
       <c r="H16" s="5"/>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="7" t="s">
         <v>603</v>
       </c>
       <c r="J16" s="5"/>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="7" t="s">
         <v>724</v>
       </c>
       <c r="L16" s="5"/>
-      <c r="M16" s="8" t="s">
+      <c r="M16" s="7" t="s">
         <v>1204</v>
       </c>
       <c r="N16" s="5"/>
-      <c r="O16" s="8" t="s">
+      <c r="O16" s="7" t="s">
         <v>833</v>
       </c>
       <c r="P16" s="5"/>
-      <c r="Q16" s="8" t="s">
+      <c r="Q16" s="7" t="s">
         <v>1020</v>
       </c>
       <c r="R16" s="5"/>
@@ -5561,33 +5586,33 @@
         <v>196</v>
       </c>
       <c r="D17" s="5"/>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="7" t="s">
         <v>334</v>
       </c>
       <c r="F17" s="5"/>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="7" t="s">
         <v>468</v>
       </c>
       <c r="H17" s="5"/>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="7" t="s">
         <v>604</v>
       </c>
       <c r="J17" s="5"/>
-      <c r="K17" s="8" t="s">
+      <c r="K17" s="7" t="s">
         <v>725</v>
       </c>
       <c r="L17" s="5"/>
-      <c r="M17" s="8" t="s">
+      <c r="M17" s="7" t="s">
         <v>1205</v>
       </c>
       <c r="N17" s="5"/>
-      <c r="O17" s="8" t="s">
+      <c r="O17" s="7" t="s">
         <v>834</v>
       </c>
       <c r="P17" s="5" t="s">
         <v>952</v>
       </c>
-      <c r="Q17" s="8" t="s">
+      <c r="Q17" s="7" t="s">
         <v>1021</v>
       </c>
       <c r="R17" s="5" t="s">
@@ -5603,31 +5628,31 @@
         <v>197</v>
       </c>
       <c r="D18" s="5"/>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="7" t="s">
         <v>335</v>
       </c>
       <c r="F18" s="5"/>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="7" t="s">
         <v>469</v>
       </c>
       <c r="H18" s="5"/>
-      <c r="I18" s="8" t="s">
+      <c r="I18" s="7" t="s">
         <v>605</v>
       </c>
       <c r="J18" s="5"/>
-      <c r="K18" s="8" t="s">
+      <c r="K18" s="7" t="s">
         <v>726</v>
       </c>
       <c r="L18" s="5"/>
-      <c r="M18" s="8" t="s">
+      <c r="M18" s="7" t="s">
         <v>1206</v>
       </c>
       <c r="N18" s="5"/>
-      <c r="O18" s="8" t="s">
+      <c r="O18" s="7" t="s">
         <v>835</v>
       </c>
       <c r="P18" s="5"/>
-      <c r="Q18" s="8" t="s">
+      <c r="Q18" s="7" t="s">
         <v>1022</v>
       </c>
       <c r="R18" s="5"/>
@@ -5641,33 +5666,33 @@
         <v>198</v>
       </c>
       <c r="D19" s="5"/>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="7" t="s">
         <v>336</v>
       </c>
       <c r="F19" s="5"/>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="7" t="s">
         <v>470</v>
       </c>
       <c r="H19" s="5"/>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="7" t="s">
         <v>606</v>
       </c>
       <c r="J19" s="5"/>
-      <c r="K19" s="8" t="s">
+      <c r="K19" s="7" t="s">
         <v>727</v>
       </c>
       <c r="L19" s="5"/>
-      <c r="M19" s="8" t="s">
+      <c r="M19" s="7" t="s">
         <v>1207</v>
       </c>
       <c r="N19" s="5"/>
-      <c r="O19" s="8" t="s">
+      <c r="O19" s="7" t="s">
         <v>836</v>
       </c>
       <c r="P19" s="5" t="s">
         <v>953</v>
       </c>
-      <c r="Q19" s="8" t="s">
+      <c r="Q19" s="7" t="s">
         <v>1023</v>
       </c>
       <c r="R19" s="5" t="s">
@@ -5683,31 +5708,31 @@
         <v>199</v>
       </c>
       <c r="D20" s="5"/>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="7" t="s">
         <v>337</v>
       </c>
       <c r="F20" s="5"/>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="7" t="s">
         <v>471</v>
       </c>
       <c r="H20" s="5"/>
-      <c r="I20" s="8" t="s">
+      <c r="I20" s="7" t="s">
         <v>607</v>
       </c>
       <c r="J20" s="5"/>
-      <c r="K20" s="8" t="s">
+      <c r="K20" s="7" t="s">
         <v>728</v>
       </c>
       <c r="L20" s="5"/>
-      <c r="M20" s="8" t="s">
+      <c r="M20" s="7" t="s">
         <v>1208</v>
       </c>
       <c r="N20" s="5"/>
-      <c r="O20" s="8" t="s">
+      <c r="O20" s="7" t="s">
         <v>837</v>
       </c>
       <c r="P20" s="5"/>
-      <c r="Q20" s="8" t="s">
+      <c r="Q20" s="7" t="s">
         <v>1024</v>
       </c>
       <c r="R20" s="5"/>
@@ -5721,33 +5746,33 @@
         <v>200</v>
       </c>
       <c r="D21" s="5"/>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="7" t="s">
         <v>338</v>
       </c>
       <c r="F21" s="5"/>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="7" t="s">
         <v>472</v>
       </c>
       <c r="H21" s="5"/>
-      <c r="I21" s="8" t="s">
+      <c r="I21" s="7" t="s">
         <v>608</v>
       </c>
       <c r="J21" s="5"/>
-      <c r="K21" s="8" t="s">
+      <c r="K21" s="7" t="s">
         <v>729</v>
       </c>
       <c r="L21" s="5"/>
-      <c r="M21" s="8" t="s">
+      <c r="M21" s="7" t="s">
         <v>1209</v>
       </c>
       <c r="N21" s="5"/>
-      <c r="O21" s="8" t="s">
+      <c r="O21" s="7" t="s">
         <v>838</v>
       </c>
       <c r="P21" s="5" t="s">
         <v>954</v>
       </c>
-      <c r="Q21" s="8" t="s">
+      <c r="Q21" s="7" t="s">
         <v>1025</v>
       </c>
       <c r="R21" s="5" t="s">
@@ -5763,29 +5788,29 @@
         <v>201</v>
       </c>
       <c r="D22" s="5"/>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="7" t="s">
         <v>339</v>
       </c>
       <c r="F22" s="5"/>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="7" t="s">
         <v>473</v>
       </c>
       <c r="H22" s="5"/>
-      <c r="I22" s="8" t="s">
+      <c r="I22" s="7" t="s">
         <v>609</v>
       </c>
       <c r="J22" s="5"/>
-      <c r="K22" s="8" t="s">
+      <c r="K22" s="7" t="s">
         <v>730</v>
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
-      <c r="O22" s="8" t="s">
+      <c r="O22" s="7" t="s">
         <v>839</v>
       </c>
       <c r="P22" s="5"/>
-      <c r="Q22" s="8" t="s">
+      <c r="Q22" s="7" t="s">
         <v>1026</v>
       </c>
       <c r="R22" s="5"/>
@@ -5799,31 +5824,31 @@
         <v>202</v>
       </c>
       <c r="D23" s="5"/>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="7" t="s">
         <v>340</v>
       </c>
       <c r="F23" s="5"/>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="7" t="s">
         <v>474</v>
       </c>
       <c r="H23" s="5"/>
-      <c r="I23" s="8" t="s">
+      <c r="I23" s="7" t="s">
         <v>610</v>
       </c>
       <c r="J23" s="5"/>
-      <c r="K23" s="8" t="s">
+      <c r="K23" s="7" t="s">
         <v>731</v>
       </c>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
-      <c r="O23" s="8" t="s">
+      <c r="O23" s="7" t="s">
         <v>840</v>
       </c>
       <c r="P23" s="5" t="s">
         <v>955</v>
       </c>
-      <c r="Q23" s="8" t="s">
+      <c r="Q23" s="7" t="s">
         <v>1027</v>
       </c>
       <c r="R23" s="5" t="s">
@@ -5839,29 +5864,29 @@
         <v>203</v>
       </c>
       <c r="D24" s="5"/>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="7" t="s">
         <v>341</v>
       </c>
       <c r="F24" s="5"/>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="7" t="s">
         <v>475</v>
       </c>
       <c r="H24" s="5"/>
-      <c r="I24" s="8" t="s">
+      <c r="I24" s="7" t="s">
         <v>611</v>
       </c>
       <c r="J24" s="5"/>
-      <c r="K24" s="8" t="s">
+      <c r="K24" s="7" t="s">
         <v>732</v>
       </c>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
-      <c r="O24" s="8" t="s">
+      <c r="O24" s="7" t="s">
         <v>841</v>
       </c>
       <c r="P24" s="5"/>
-      <c r="Q24" s="8" t="s">
+      <c r="Q24" s="7" t="s">
         <v>1028</v>
       </c>
       <c r="R24" s="5"/>
@@ -5875,31 +5900,31 @@
         <v>204</v>
       </c>
       <c r="D25" s="5"/>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="7" t="s">
         <v>342</v>
       </c>
       <c r="F25" s="5"/>
-      <c r="G25" s="8" t="s">
+      <c r="G25" s="7" t="s">
         <v>476</v>
       </c>
       <c r="H25" s="5"/>
-      <c r="I25" s="8" t="s">
+      <c r="I25" s="7" t="s">
         <v>612</v>
       </c>
       <c r="J25" s="5"/>
-      <c r="K25" s="8" t="s">
+      <c r="K25" s="7" t="s">
         <v>733</v>
       </c>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
-      <c r="O25" s="8" t="s">
+      <c r="O25" s="7" t="s">
         <v>842</v>
       </c>
       <c r="P25" s="5" t="s">
         <v>956</v>
       </c>
-      <c r="Q25" s="8" t="s">
+      <c r="Q25" s="7" t="s">
         <v>1029</v>
       </c>
       <c r="R25" s="5" t="s">
@@ -5915,29 +5940,29 @@
         <v>205</v>
       </c>
       <c r="D26" s="5"/>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="7" t="s">
         <v>343</v>
       </c>
       <c r="F26" s="5"/>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="7" t="s">
         <v>477</v>
       </c>
       <c r="H26" s="5"/>
-      <c r="I26" s="8" t="s">
+      <c r="I26" s="7" t="s">
         <v>613</v>
       </c>
       <c r="J26" s="5"/>
-      <c r="K26" s="8" t="s">
+      <c r="K26" s="7" t="s">
         <v>734</v>
       </c>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
-      <c r="O26" s="8" t="s">
+      <c r="O26" s="7" t="s">
         <v>843</v>
       </c>
       <c r="P26" s="5"/>
-      <c r="Q26" s="8" t="s">
+      <c r="Q26" s="7" t="s">
         <v>1030</v>
       </c>
       <c r="R26" s="5"/>
@@ -5951,31 +5976,31 @@
         <v>206</v>
       </c>
       <c r="D27" s="5"/>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="7" t="s">
         <v>344</v>
       </c>
       <c r="F27" s="5"/>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="7" t="s">
         <v>478</v>
       </c>
       <c r="H27" s="5"/>
-      <c r="I27" s="8" t="s">
+      <c r="I27" s="7" t="s">
         <v>614</v>
       </c>
       <c r="J27" s="5"/>
-      <c r="K27" s="8" t="s">
+      <c r="K27" s="7" t="s">
         <v>735</v>
       </c>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
-      <c r="O27" s="8" t="s">
+      <c r="O27" s="7" t="s">
         <v>844</v>
       </c>
       <c r="P27" s="5" t="s">
         <v>957</v>
       </c>
-      <c r="Q27" s="8" t="s">
+      <c r="Q27" s="7" t="s">
         <v>1031</v>
       </c>
       <c r="R27" s="5" t="s">
@@ -5991,29 +6016,29 @@
         <v>207</v>
       </c>
       <c r="D28" s="5"/>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="7" t="s">
         <v>345</v>
       </c>
       <c r="F28" s="5"/>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="7" t="s">
         <v>479</v>
       </c>
       <c r="H28" s="5"/>
-      <c r="I28" s="8" t="s">
+      <c r="I28" s="7" t="s">
         <v>615</v>
       </c>
       <c r="J28" s="5"/>
-      <c r="K28" s="8" t="s">
+      <c r="K28" s="7" t="s">
         <v>736</v>
       </c>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
-      <c r="O28" s="8" t="s">
+      <c r="O28" s="7" t="s">
         <v>845</v>
       </c>
       <c r="P28" s="5"/>
-      <c r="Q28" s="8" t="s">
+      <c r="Q28" s="7" t="s">
         <v>1032</v>
       </c>
       <c r="R28" s="5"/>
@@ -6027,31 +6052,31 @@
         <v>208</v>
       </c>
       <c r="D29" s="5"/>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="7" t="s">
         <v>346</v>
       </c>
       <c r="F29" s="5"/>
-      <c r="G29" s="8" t="s">
+      <c r="G29" s="7" t="s">
         <v>480</v>
       </c>
       <c r="H29" s="5"/>
-      <c r="I29" s="8" t="s">
+      <c r="I29" s="7" t="s">
         <v>616</v>
       </c>
       <c r="J29" s="5"/>
-      <c r="K29" s="8" t="s">
+      <c r="K29" s="7" t="s">
         <v>737</v>
       </c>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
-      <c r="O29" s="8" t="s">
+      <c r="O29" s="7" t="s">
         <v>846</v>
       </c>
       <c r="P29" s="5" t="s">
         <v>958</v>
       </c>
-      <c r="Q29" s="8" t="s">
+      <c r="Q29" s="7" t="s">
         <v>1033</v>
       </c>
       <c r="R29" s="5" t="s">
@@ -6067,29 +6092,29 @@
         <v>209</v>
       </c>
       <c r="D30" s="5"/>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="7" t="s">
         <v>347</v>
       </c>
       <c r="F30" s="5"/>
-      <c r="G30" s="8" t="s">
+      <c r="G30" s="7" t="s">
         <v>481</v>
       </c>
       <c r="H30" s="5"/>
-      <c r="I30" s="8" t="s">
+      <c r="I30" s="7" t="s">
         <v>617</v>
       </c>
       <c r="J30" s="5"/>
-      <c r="K30" s="8" t="s">
+      <c r="K30" s="7" t="s">
         <v>738</v>
       </c>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
-      <c r="O30" s="8" t="s">
+      <c r="O30" s="7" t="s">
         <v>847</v>
       </c>
       <c r="P30" s="5"/>
-      <c r="Q30" s="8" t="s">
+      <c r="Q30" s="7" t="s">
         <v>1034</v>
       </c>
       <c r="R30" s="5"/>
@@ -6103,31 +6128,31 @@
         <v>210</v>
       </c>
       <c r="D31" s="5"/>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="7" t="s">
         <v>348</v>
       </c>
       <c r="F31" s="5"/>
-      <c r="G31" s="8" t="s">
+      <c r="G31" s="7" t="s">
         <v>482</v>
       </c>
       <c r="H31" s="5"/>
-      <c r="I31" s="8" t="s">
+      <c r="I31" s="7" t="s">
         <v>618</v>
       </c>
       <c r="J31" s="5"/>
-      <c r="K31" s="8" t="s">
+      <c r="K31" s="7" t="s">
         <v>739</v>
       </c>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
-      <c r="O31" s="8" t="s">
+      <c r="O31" s="7" t="s">
         <v>848</v>
       </c>
       <c r="P31" s="5" t="s">
         <v>959</v>
       </c>
-      <c r="Q31" s="8" t="s">
+      <c r="Q31" s="7" t="s">
         <v>1035</v>
       </c>
       <c r="R31" s="5" t="s">
@@ -6143,29 +6168,29 @@
         <v>211</v>
       </c>
       <c r="D32" s="5"/>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="7" t="s">
         <v>349</v>
       </c>
       <c r="F32" s="5"/>
-      <c r="G32" s="8" t="s">
+      <c r="G32" s="7" t="s">
         <v>483</v>
       </c>
       <c r="H32" s="5"/>
-      <c r="I32" s="8" t="s">
+      <c r="I32" s="7" t="s">
         <v>619</v>
       </c>
       <c r="J32" s="5"/>
-      <c r="K32" s="8" t="s">
+      <c r="K32" s="7" t="s">
         <v>740</v>
       </c>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
-      <c r="O32" s="8" t="s">
+      <c r="O32" s="7" t="s">
         <v>849</v>
       </c>
       <c r="P32" s="5"/>
-      <c r="Q32" s="8" t="s">
+      <c r="Q32" s="7" t="s">
         <v>1036</v>
       </c>
       <c r="R32" s="5"/>
@@ -6179,31 +6204,31 @@
         <v>212</v>
       </c>
       <c r="D33" s="5"/>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="7" t="s">
         <v>350</v>
       </c>
       <c r="F33" s="5"/>
-      <c r="G33" s="8" t="s">
+      <c r="G33" s="7" t="s">
         <v>484</v>
       </c>
       <c r="H33" s="5"/>
-      <c r="I33" s="8" t="s">
+      <c r="I33" s="7" t="s">
         <v>620</v>
       </c>
       <c r="J33" s="5"/>
-      <c r="K33" s="8" t="s">
+      <c r="K33" s="7" t="s">
         <v>741</v>
       </c>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
-      <c r="O33" s="8" t="s">
+      <c r="O33" s="7" t="s">
         <v>850</v>
       </c>
       <c r="P33" s="5" t="s">
         <v>960</v>
       </c>
-      <c r="Q33" s="8" t="s">
+      <c r="Q33" s="7" t="s">
         <v>1037</v>
       </c>
       <c r="R33" s="5" t="s">
@@ -6219,29 +6244,29 @@
         <v>213</v>
       </c>
       <c r="D34" s="5"/>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="7" t="s">
         <v>351</v>
       </c>
       <c r="F34" s="5"/>
-      <c r="G34" s="8" t="s">
+      <c r="G34" s="7" t="s">
         <v>485</v>
       </c>
       <c r="H34" s="5"/>
-      <c r="I34" s="8" t="s">
+      <c r="I34" s="7" t="s">
         <v>621</v>
       </c>
       <c r="J34" s="5"/>
-      <c r="K34" s="8" t="s">
+      <c r="K34" s="7" t="s">
         <v>742</v>
       </c>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
-      <c r="O34" s="8" t="s">
+      <c r="O34" s="7" t="s">
         <v>851</v>
       </c>
       <c r="P34" s="5"/>
-      <c r="Q34" s="8" t="s">
+      <c r="Q34" s="7" t="s">
         <v>1038</v>
       </c>
       <c r="R34" s="5"/>
@@ -6255,31 +6280,31 @@
         <v>214</v>
       </c>
       <c r="D35" s="5"/>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="7" t="s">
         <v>352</v>
       </c>
       <c r="F35" s="5"/>
-      <c r="G35" s="8" t="s">
+      <c r="G35" s="7" t="s">
         <v>486</v>
       </c>
       <c r="H35" s="5"/>
-      <c r="I35" s="8" t="s">
+      <c r="I35" s="7" t="s">
         <v>622</v>
       </c>
       <c r="J35" s="5"/>
-      <c r="K35" s="8" t="s">
+      <c r="K35" s="7" t="s">
         <v>743</v>
       </c>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
-      <c r="O35" s="8" t="s">
+      <c r="O35" s="7" t="s">
         <v>852</v>
       </c>
       <c r="P35" s="5" t="s">
         <v>961</v>
       </c>
-      <c r="Q35" s="8" t="s">
+      <c r="Q35" s="7" t="s">
         <v>1039</v>
       </c>
       <c r="R35" s="5" t="s">
@@ -6295,29 +6320,29 @@
         <v>215</v>
       </c>
       <c r="D36" s="5"/>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="7" t="s">
         <v>353</v>
       </c>
       <c r="F36" s="5"/>
-      <c r="G36" s="8" t="s">
+      <c r="G36" s="7" t="s">
         <v>487</v>
       </c>
       <c r="H36" s="5"/>
-      <c r="I36" s="8" t="s">
+      <c r="I36" s="7" t="s">
         <v>623</v>
       </c>
       <c r="J36" s="5"/>
-      <c r="K36" s="8" t="s">
+      <c r="K36" s="7" t="s">
         <v>744</v>
       </c>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
-      <c r="O36" s="8" t="s">
+      <c r="O36" s="7" t="s">
         <v>853</v>
       </c>
       <c r="P36" s="5"/>
-      <c r="Q36" s="8" t="s">
+      <c r="Q36" s="7" t="s">
         <v>1040</v>
       </c>
       <c r="R36" s="5"/>
@@ -6331,31 +6356,31 @@
         <v>216</v>
       </c>
       <c r="D37" s="5"/>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="7" t="s">
         <v>354</v>
       </c>
       <c r="F37" s="5"/>
-      <c r="G37" s="8" t="s">
+      <c r="G37" s="7" t="s">
         <v>488</v>
       </c>
       <c r="H37" s="5"/>
-      <c r="I37" s="8" t="s">
+      <c r="I37" s="7" t="s">
         <v>624</v>
       </c>
       <c r="J37" s="5"/>
-      <c r="K37" s="8" t="s">
+      <c r="K37" s="7" t="s">
         <v>745</v>
       </c>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
-      <c r="O37" s="8" t="s">
+      <c r="O37" s="7" t="s">
         <v>854</v>
       </c>
       <c r="P37" s="5" t="s">
         <v>962</v>
       </c>
-      <c r="Q37" s="8" t="s">
+      <c r="Q37" s="7" t="s">
         <v>1041</v>
       </c>
       <c r="R37" s="5" t="s">
@@ -6371,29 +6396,29 @@
         <v>217</v>
       </c>
       <c r="D38" s="5"/>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="7" t="s">
         <v>355</v>
       </c>
       <c r="F38" s="5"/>
-      <c r="G38" s="8" t="s">
+      <c r="G38" s="7" t="s">
         <v>489</v>
       </c>
       <c r="H38" s="5"/>
-      <c r="I38" s="8" t="s">
+      <c r="I38" s="7" t="s">
         <v>625</v>
       </c>
       <c r="J38" s="5"/>
-      <c r="K38" s="8" t="s">
+      <c r="K38" s="7" t="s">
         <v>746</v>
       </c>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
-      <c r="O38" s="8" t="s">
+      <c r="O38" s="7" t="s">
         <v>855</v>
       </c>
       <c r="P38" s="5"/>
-      <c r="Q38" s="8" t="s">
+      <c r="Q38" s="7" t="s">
         <v>1042</v>
       </c>
       <c r="R38" s="5"/>
@@ -6407,31 +6432,31 @@
         <v>218</v>
       </c>
       <c r="D39" s="5"/>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="7" t="s">
         <v>356</v>
       </c>
       <c r="F39" s="5"/>
-      <c r="G39" s="8" t="s">
+      <c r="G39" s="7" t="s">
         <v>490</v>
       </c>
       <c r="H39" s="5"/>
-      <c r="I39" s="8" t="s">
+      <c r="I39" s="7" t="s">
         <v>626</v>
       </c>
       <c r="J39" s="5"/>
-      <c r="K39" s="8" t="s">
+      <c r="K39" s="7" t="s">
         <v>747</v>
       </c>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
-      <c r="O39" s="8" t="s">
+      <c r="O39" s="7" t="s">
         <v>856</v>
       </c>
       <c r="P39" s="5" t="s">
         <v>963</v>
       </c>
-      <c r="Q39" s="8" t="s">
+      <c r="Q39" s="7" t="s">
         <v>1043</v>
       </c>
       <c r="R39" s="5" t="s">
@@ -6447,29 +6472,29 @@
         <v>219</v>
       </c>
       <c r="D40" s="5"/>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="7" t="s">
         <v>357</v>
       </c>
       <c r="F40" s="5"/>
-      <c r="G40" s="8" t="s">
+      <c r="G40" s="7" t="s">
         <v>491</v>
       </c>
       <c r="H40" s="5"/>
-      <c r="I40" s="8" t="s">
+      <c r="I40" s="7" t="s">
         <v>627</v>
       </c>
       <c r="J40" s="5"/>
-      <c r="K40" s="8" t="s">
+      <c r="K40" s="7" t="s">
         <v>748</v>
       </c>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
-      <c r="O40" s="8" t="s">
+      <c r="O40" s="7" t="s">
         <v>857</v>
       </c>
       <c r="P40" s="5"/>
-      <c r="Q40" s="8" t="s">
+      <c r="Q40" s="7" t="s">
         <v>1044</v>
       </c>
       <c r="R40" s="5"/>
@@ -6483,31 +6508,31 @@
         <v>220</v>
       </c>
       <c r="D41" s="5"/>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="7" t="s">
         <v>358</v>
       </c>
       <c r="F41" s="5"/>
-      <c r="G41" s="8" t="s">
+      <c r="G41" s="7" t="s">
         <v>492</v>
       </c>
       <c r="H41" s="5"/>
-      <c r="I41" s="8" t="s">
+      <c r="I41" s="7" t="s">
         <v>628</v>
       </c>
       <c r="J41" s="5"/>
-      <c r="K41" s="8" t="s">
+      <c r="K41" s="7" t="s">
         <v>749</v>
       </c>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
-      <c r="O41" s="8" t="s">
+      <c r="O41" s="7" t="s">
         <v>858</v>
       </c>
       <c r="P41" s="5" t="s">
         <v>964</v>
       </c>
-      <c r="Q41" s="8" t="s">
+      <c r="Q41" s="7" t="s">
         <v>1045</v>
       </c>
       <c r="R41" s="5" t="s">
@@ -6523,29 +6548,29 @@
         <v>221</v>
       </c>
       <c r="D42" s="5"/>
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="7" t="s">
         <v>359</v>
       </c>
       <c r="F42" s="5"/>
-      <c r="G42" s="8" t="s">
+      <c r="G42" s="7" t="s">
         <v>493</v>
       </c>
       <c r="H42" s="5"/>
-      <c r="I42" s="8" t="s">
+      <c r="I42" s="7" t="s">
         <v>629</v>
       </c>
       <c r="J42" s="5"/>
-      <c r="K42" s="8" t="s">
+      <c r="K42" s="7" t="s">
         <v>750</v>
       </c>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
-      <c r="O42" s="8" t="s">
+      <c r="O42" s="7" t="s">
         <v>859</v>
       </c>
       <c r="P42" s="5"/>
-      <c r="Q42" s="8" t="s">
+      <c r="Q42" s="7" t="s">
         <v>1046</v>
       </c>
       <c r="R42" s="5"/>
@@ -6559,31 +6584,31 @@
         <v>222</v>
       </c>
       <c r="D43" s="5"/>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="7" t="s">
         <v>360</v>
       </c>
       <c r="F43" s="5"/>
-      <c r="G43" s="8" t="s">
+      <c r="G43" s="7" t="s">
         <v>494</v>
       </c>
       <c r="H43" s="5"/>
-      <c r="I43" s="8" t="s">
+      <c r="I43" s="7" t="s">
         <v>630</v>
       </c>
       <c r="J43" s="5"/>
-      <c r="K43" s="8" t="s">
+      <c r="K43" s="7" t="s">
         <v>751</v>
       </c>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
-      <c r="O43" s="8" t="s">
+      <c r="O43" s="7" t="s">
         <v>860</v>
       </c>
       <c r="P43" s="5" t="s">
         <v>965</v>
       </c>
-      <c r="Q43" s="8" t="s">
+      <c r="Q43" s="7" t="s">
         <v>1047</v>
       </c>
       <c r="R43" s="5" t="s">
@@ -6599,29 +6624,29 @@
         <v>223</v>
       </c>
       <c r="D44" s="5"/>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="7" t="s">
         <v>361</v>
       </c>
       <c r="F44" s="5"/>
-      <c r="G44" s="8" t="s">
+      <c r="G44" s="7" t="s">
         <v>495</v>
       </c>
       <c r="H44" s="5"/>
-      <c r="I44" s="8" t="s">
+      <c r="I44" s="7" t="s">
         <v>631</v>
       </c>
       <c r="J44" s="5"/>
-      <c r="K44" s="8" t="s">
+      <c r="K44" s="7" t="s">
         <v>752</v>
       </c>
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
-      <c r="O44" s="8" t="s">
+      <c r="O44" s="7" t="s">
         <v>861</v>
       </c>
       <c r="P44" s="5"/>
-      <c r="Q44" s="8" t="s">
+      <c r="Q44" s="7" t="s">
         <v>1048</v>
       </c>
       <c r="R44" s="5"/>
@@ -6635,31 +6660,31 @@
         <v>224</v>
       </c>
       <c r="D45" s="5"/>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="7" t="s">
         <v>362</v>
       </c>
       <c r="F45" s="5"/>
-      <c r="G45" s="8" t="s">
+      <c r="G45" s="7" t="s">
         <v>496</v>
       </c>
       <c r="H45" s="5"/>
-      <c r="I45" s="8" t="s">
+      <c r="I45" s="7" t="s">
         <v>632</v>
       </c>
       <c r="J45" s="5"/>
-      <c r="K45" s="8" t="s">
+      <c r="K45" s="7" t="s">
         <v>753</v>
       </c>
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
-      <c r="O45" s="8" t="s">
+      <c r="O45" s="7" t="s">
         <v>862</v>
       </c>
       <c r="P45" s="5" t="s">
         <v>966</v>
       </c>
-      <c r="Q45" s="8" t="s">
+      <c r="Q45" s="7" t="s">
         <v>1049</v>
       </c>
       <c r="R45" s="5" t="s">
@@ -6675,29 +6700,29 @@
         <v>225</v>
       </c>
       <c r="D46" s="5"/>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="7" t="s">
         <v>363</v>
       </c>
       <c r="F46" s="5"/>
-      <c r="G46" s="8" t="s">
+      <c r="G46" s="7" t="s">
         <v>497</v>
       </c>
       <c r="H46" s="5"/>
-      <c r="I46" s="8" t="s">
+      <c r="I46" s="7" t="s">
         <v>633</v>
       </c>
       <c r="J46" s="5"/>
-      <c r="K46" s="8" t="s">
+      <c r="K46" s="7" t="s">
         <v>754</v>
       </c>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
-      <c r="O46" s="8" t="s">
+      <c r="O46" s="7" t="s">
         <v>863</v>
       </c>
       <c r="P46" s="5"/>
-      <c r="Q46" s="8" t="s">
+      <c r="Q46" s="7" t="s">
         <v>1050</v>
       </c>
       <c r="R46" s="5"/>
@@ -6711,31 +6736,31 @@
         <v>226</v>
       </c>
       <c r="D47" s="5"/>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="7" t="s">
         <v>364</v>
       </c>
       <c r="F47" s="5"/>
-      <c r="G47" s="8" t="s">
+      <c r="G47" s="7" t="s">
         <v>498</v>
       </c>
       <c r="H47" s="5"/>
-      <c r="I47" s="8" t="s">
+      <c r="I47" s="7" t="s">
         <v>634</v>
       </c>
       <c r="J47" s="5"/>
-      <c r="K47" s="8" t="s">
+      <c r="K47" s="7" t="s">
         <v>755</v>
       </c>
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
-      <c r="O47" s="8" t="s">
+      <c r="O47" s="7" t="s">
         <v>864</v>
       </c>
       <c r="P47" s="5" t="s">
         <v>967</v>
       </c>
-      <c r="Q47" s="8" t="s">
+      <c r="Q47" s="7" t="s">
         <v>1051</v>
       </c>
       <c r="R47" s="5" t="s">
@@ -6751,29 +6776,29 @@
         <v>227</v>
       </c>
       <c r="D48" s="5"/>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="7" t="s">
         <v>365</v>
       </c>
       <c r="F48" s="5"/>
-      <c r="G48" s="8" t="s">
+      <c r="G48" s="7" t="s">
         <v>499</v>
       </c>
       <c r="H48" s="5"/>
-      <c r="I48" s="8" t="s">
+      <c r="I48" s="7" t="s">
         <v>635</v>
       </c>
       <c r="J48" s="5"/>
-      <c r="K48" s="8" t="s">
+      <c r="K48" s="7" t="s">
         <v>756</v>
       </c>
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
-      <c r="O48" s="8" t="s">
+      <c r="O48" s="7" t="s">
         <v>865</v>
       </c>
       <c r="P48" s="5"/>
-      <c r="Q48" s="8" t="s">
+      <c r="Q48" s="7" t="s">
         <v>1052</v>
       </c>
       <c r="R48" s="5"/>
@@ -6787,31 +6812,31 @@
         <v>228</v>
       </c>
       <c r="D49" s="5"/>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="7" t="s">
         <v>366</v>
       </c>
       <c r="F49" s="5"/>
-      <c r="G49" s="8" t="s">
+      <c r="G49" s="7" t="s">
         <v>500</v>
       </c>
       <c r="H49" s="5"/>
-      <c r="I49" s="8" t="s">
+      <c r="I49" s="7" t="s">
         <v>636</v>
       </c>
       <c r="J49" s="5"/>
-      <c r="K49" s="8" t="s">
+      <c r="K49" s="7" t="s">
         <v>757</v>
       </c>
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
-      <c r="O49" s="8" t="s">
+      <c r="O49" s="7" t="s">
         <v>866</v>
       </c>
       <c r="P49" s="5" t="s">
         <v>968</v>
       </c>
-      <c r="Q49" s="8" t="s">
+      <c r="Q49" s="7" t="s">
         <v>1053</v>
       </c>
       <c r="R49" s="5" t="s">
@@ -6827,29 +6852,29 @@
         <v>229</v>
       </c>
       <c r="D50" s="5"/>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="7" t="s">
         <v>367</v>
       </c>
       <c r="F50" s="5"/>
-      <c r="G50" s="8" t="s">
+      <c r="G50" s="7" t="s">
         <v>501</v>
       </c>
       <c r="H50" s="5"/>
-      <c r="I50" s="8" t="s">
+      <c r="I50" s="7" t="s">
         <v>637</v>
       </c>
       <c r="J50" s="5"/>
-      <c r="K50" s="8" t="s">
+      <c r="K50" s="7" t="s">
         <v>758</v>
       </c>
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
-      <c r="O50" s="8" t="s">
+      <c r="O50" s="7" t="s">
         <v>867</v>
       </c>
       <c r="P50" s="5"/>
-      <c r="Q50" s="8" t="s">
+      <c r="Q50" s="7" t="s">
         <v>1054</v>
       </c>
       <c r="R50" s="5"/>
@@ -6867,35 +6892,35 @@
       <c r="D51" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="F51" s="8" t="s">
+      <c r="F51" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="G51" s="8" t="s">
+      <c r="G51" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="H51" s="8" t="s">
+      <c r="H51" s="7" t="s">
         <v>580</v>
       </c>
-      <c r="I51" s="8" t="s">
+      <c r="I51" s="7" t="s">
         <v>638</v>
       </c>
       <c r="J51" s="5"/>
-      <c r="K51" s="8" t="s">
+      <c r="K51" s="7" t="s">
         <v>759</v>
       </c>
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
-      <c r="O51" s="8" t="s">
+      <c r="O51" s="7" t="s">
         <v>868</v>
       </c>
       <c r="P51" s="5" t="s">
         <v>969</v>
       </c>
-      <c r="Q51" s="8" t="s">
+      <c r="Q51" s="7" t="s">
         <v>1055</v>
       </c>
       <c r="R51" s="5" t="s">
@@ -6913,31 +6938,31 @@
         <v>231</v>
       </c>
       <c r="D52" s="5"/>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="G52" s="8" t="s">
+      <c r="G52" s="7" t="s">
         <v>503</v>
       </c>
       <c r="H52" s="5"/>
-      <c r="I52" s="8" t="s">
+      <c r="I52" s="7" t="s">
         <v>639</v>
       </c>
       <c r="J52" s="5"/>
-      <c r="K52" s="8" t="s">
+      <c r="K52" s="7" t="s">
         <v>760</v>
       </c>
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
-      <c r="O52" s="8" t="s">
+      <c r="O52" s="7" t="s">
         <v>869</v>
       </c>
       <c r="P52" s="5"/>
-      <c r="Q52" s="8" t="s">
+      <c r="Q52" s="7" t="s">
         <v>1056</v>
       </c>
       <c r="R52" s="5"/>
@@ -6953,35 +6978,35 @@
       <c r="D53" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="F53" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="G53" s="8" t="s">
+      <c r="G53" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="H53" s="8" t="s">
+      <c r="H53" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="I53" s="8" t="s">
+      <c r="I53" s="7" t="s">
         <v>640</v>
       </c>
       <c r="J53" s="5"/>
-      <c r="K53" s="8" t="s">
+      <c r="K53" s="7" t="s">
         <v>761</v>
       </c>
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
-      <c r="O53" s="8" t="s">
+      <c r="O53" s="7" t="s">
         <v>870</v>
       </c>
       <c r="P53" s="5" t="s">
         <v>970</v>
       </c>
-      <c r="Q53" s="8" t="s">
+      <c r="Q53" s="7" t="s">
         <v>1057</v>
       </c>
       <c r="R53" s="5" t="s">
@@ -6997,31 +7022,31 @@
         <v>233</v>
       </c>
       <c r="D54" s="5"/>
-      <c r="E54" s="8" t="s">
+      <c r="E54" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="F54" s="8" t="s">
+      <c r="F54" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="G54" s="8" t="s">
+      <c r="G54" s="7" t="s">
         <v>505</v>
       </c>
       <c r="H54" s="5"/>
-      <c r="I54" s="8" t="s">
+      <c r="I54" s="7" t="s">
         <v>641</v>
       </c>
       <c r="J54" s="5"/>
-      <c r="K54" s="8" t="s">
+      <c r="K54" s="7" t="s">
         <v>762</v>
       </c>
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
-      <c r="O54" s="8" t="s">
+      <c r="O54" s="7" t="s">
         <v>871</v>
       </c>
       <c r="P54" s="5"/>
-      <c r="Q54" s="8" t="s">
+      <c r="Q54" s="7" t="s">
         <v>1058</v>
       </c>
       <c r="R54" s="5"/>
@@ -7037,35 +7062,35 @@
       <c r="D55" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="E55" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="F55" s="8" t="s">
+      <c r="F55" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="G55" s="8" t="s">
+      <c r="G55" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="H55" s="8" t="s">
+      <c r="H55" s="7" t="s">
         <v>694</v>
       </c>
-      <c r="I55" s="8" t="s">
+      <c r="I55" s="7" t="s">
         <v>642</v>
       </c>
       <c r="J55" s="5"/>
-      <c r="K55" s="8" t="s">
+      <c r="K55" s="7" t="s">
         <v>763</v>
       </c>
       <c r="L55" s="5"/>
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
-      <c r="O55" s="8" t="s">
+      <c r="O55" s="7" t="s">
         <v>872</v>
       </c>
       <c r="P55" s="5" t="s">
         <v>971</v>
       </c>
-      <c r="Q55" s="8" t="s">
+      <c r="Q55" s="7" t="s">
         <v>1059</v>
       </c>
       <c r="R55" s="5" t="s">
@@ -7081,31 +7106,31 @@
         <v>235</v>
       </c>
       <c r="D56" s="5"/>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="F56" s="8" t="s">
+      <c r="F56" s="7" t="s">
         <v>585</v>
       </c>
-      <c r="G56" s="8" t="s">
+      <c r="G56" s="7" t="s">
         <v>507</v>
       </c>
       <c r="H56" s="5"/>
-      <c r="I56" s="8" t="s">
+      <c r="I56" s="7" t="s">
         <v>643</v>
       </c>
       <c r="J56" s="5"/>
-      <c r="K56" s="8" t="s">
+      <c r="K56" s="7" t="s">
         <v>764</v>
       </c>
       <c r="L56" s="5"/>
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
-      <c r="O56" s="8" t="s">
+      <c r="O56" s="7" t="s">
         <v>873</v>
       </c>
       <c r="P56" s="5"/>
-      <c r="Q56" s="8" t="s">
+      <c r="Q56" s="7" t="s">
         <v>1060</v>
       </c>
       <c r="R56" s="5"/>
@@ -7121,33 +7146,33 @@
       <c r="D57" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="E57" s="7" t="s">
         <v>374</v>
       </c>
       <c r="F57" s="5"/>
-      <c r="G57" s="8" t="s">
+      <c r="G57" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="H57" s="8" t="s">
+      <c r="H57" s="7" t="s">
         <v>695</v>
       </c>
-      <c r="I57" s="8" t="s">
+      <c r="I57" s="7" t="s">
         <v>644</v>
       </c>
       <c r="J57" s="5"/>
-      <c r="K57" s="8" t="s">
+      <c r="K57" s="7" t="s">
         <v>765</v>
       </c>
       <c r="L57" s="5"/>
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
-      <c r="O57" s="8" t="s">
+      <c r="O57" s="7" t="s">
         <v>874</v>
       </c>
       <c r="P57" s="5" t="s">
         <v>972</v>
       </c>
-      <c r="Q57" s="8" t="s">
+      <c r="Q57" s="7" t="s">
         <v>1061</v>
       </c>
       <c r="R57" s="5" t="s">
@@ -7163,29 +7188,29 @@
         <v>237</v>
       </c>
       <c r="D58" s="5"/>
-      <c r="E58" s="8" t="s">
+      <c r="E58" s="7" t="s">
         <v>375</v>
       </c>
       <c r="F58" s="5"/>
-      <c r="G58" s="8" t="s">
+      <c r="G58" s="7" t="s">
         <v>509</v>
       </c>
       <c r="H58" s="5"/>
-      <c r="I58" s="8" t="s">
+      <c r="I58" s="7" t="s">
         <v>645</v>
       </c>
       <c r="J58" s="5"/>
-      <c r="K58" s="8" t="s">
+      <c r="K58" s="7" t="s">
         <v>766</v>
       </c>
       <c r="L58" s="5"/>
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
-      <c r="O58" s="8" t="s">
+      <c r="O58" s="7" t="s">
         <v>875</v>
       </c>
       <c r="P58" s="5"/>
-      <c r="Q58" s="8" t="s">
+      <c r="Q58" s="7" t="s">
         <v>1062</v>
       </c>
       <c r="R58" s="5"/>
@@ -7199,31 +7224,31 @@
         <v>238</v>
       </c>
       <c r="D59" s="5"/>
-      <c r="E59" s="8" t="s">
+      <c r="E59" s="7" t="s">
         <v>376</v>
       </c>
       <c r="F59" s="5"/>
-      <c r="G59" s="8" t="s">
+      <c r="G59" s="7" t="s">
         <v>510</v>
       </c>
       <c r="H59" s="5"/>
-      <c r="I59" s="8" t="s">
+      <c r="I59" s="7" t="s">
         <v>646</v>
       </c>
       <c r="J59" s="5"/>
-      <c r="K59" s="8" t="s">
+      <c r="K59" s="7" t="s">
         <v>767</v>
       </c>
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
-      <c r="O59" s="8" t="s">
+      <c r="O59" s="7" t="s">
         <v>876</v>
       </c>
       <c r="P59" s="5" t="s">
         <v>973</v>
       </c>
-      <c r="Q59" s="8" t="s">
+      <c r="Q59" s="7" t="s">
         <v>1063</v>
       </c>
       <c r="R59" s="5" t="s">
@@ -7239,29 +7264,29 @@
         <v>239</v>
       </c>
       <c r="D60" s="5"/>
-      <c r="E60" s="8" t="s">
+      <c r="E60" s="7" t="s">
         <v>377</v>
       </c>
       <c r="F60" s="5"/>
-      <c r="G60" s="8" t="s">
+      <c r="G60" s="7" t="s">
         <v>511</v>
       </c>
       <c r="H60" s="5"/>
-      <c r="I60" s="8" t="s">
+      <c r="I60" s="7" t="s">
         <v>647</v>
       </c>
       <c r="J60" s="5"/>
-      <c r="K60" s="8" t="s">
+      <c r="K60" s="7" t="s">
         <v>768</v>
       </c>
       <c r="L60" s="5"/>
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
-      <c r="O60" s="8" t="s">
+      <c r="O60" s="7" t="s">
         <v>877</v>
       </c>
       <c r="P60" s="5"/>
-      <c r="Q60" s="8" t="s">
+      <c r="Q60" s="7" t="s">
         <v>1064</v>
       </c>
       <c r="R60" s="5"/>
@@ -7277,33 +7302,33 @@
       <c r="D61" s="5" t="s">
         <v>815</v>
       </c>
-      <c r="E61" s="8" t="s">
+      <c r="E61" s="7" t="s">
         <v>378</v>
       </c>
       <c r="F61" s="5"/>
-      <c r="G61" s="8" t="s">
+      <c r="G61" s="7" t="s">
         <v>512</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="I61" s="8" t="s">
+      <c r="I61" s="7" t="s">
         <v>648</v>
       </c>
       <c r="J61" s="5"/>
-      <c r="K61" s="8" t="s">
+      <c r="K61" s="7" t="s">
         <v>769</v>
       </c>
       <c r="L61" s="5"/>
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
-      <c r="O61" s="8" t="s">
+      <c r="O61" s="7" t="s">
         <v>878</v>
       </c>
       <c r="P61" s="5" t="s">
         <v>974</v>
       </c>
-      <c r="Q61" s="8" t="s">
+      <c r="Q61" s="7" t="s">
         <v>1065</v>
       </c>
       <c r="R61" s="5" t="s">
@@ -7319,29 +7344,29 @@
         <v>241</v>
       </c>
       <c r="D62" s="5"/>
-      <c r="E62" s="8" t="s">
+      <c r="E62" s="7" t="s">
         <v>379</v>
       </c>
       <c r="F62" s="5"/>
-      <c r="G62" s="8" t="s">
+      <c r="G62" s="7" t="s">
         <v>513</v>
       </c>
       <c r="H62" s="5"/>
-      <c r="I62" s="8" t="s">
+      <c r="I62" s="7" t="s">
         <v>649</v>
       </c>
       <c r="J62" s="5"/>
-      <c r="K62" s="8" t="s">
+      <c r="K62" s="7" t="s">
         <v>770</v>
       </c>
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
-      <c r="O62" s="8" t="s">
+      <c r="O62" s="7" t="s">
         <v>879</v>
       </c>
       <c r="P62" s="5"/>
-      <c r="Q62" s="8" t="s">
+      <c r="Q62" s="7" t="s">
         <v>1066</v>
       </c>
       <c r="R62" s="5"/>
@@ -7355,31 +7380,31 @@
         <v>242</v>
       </c>
       <c r="D63" s="5"/>
-      <c r="E63" s="8" t="s">
+      <c r="E63" s="7" t="s">
         <v>380</v>
       </c>
       <c r="F63" s="5"/>
-      <c r="G63" s="8" t="s">
+      <c r="G63" s="7" t="s">
         <v>514</v>
       </c>
       <c r="H63" s="5"/>
-      <c r="I63" s="8" t="s">
+      <c r="I63" s="7" t="s">
         <v>650</v>
       </c>
       <c r="J63" s="5"/>
-      <c r="K63" s="8" t="s">
+      <c r="K63" s="7" t="s">
         <v>771</v>
       </c>
       <c r="L63" s="5"/>
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
-      <c r="O63" s="8" t="s">
+      <c r="O63" s="7" t="s">
         <v>880</v>
       </c>
       <c r="P63" s="5" t="s">
         <v>975</v>
       </c>
-      <c r="Q63" s="8" t="s">
+      <c r="Q63" s="7" t="s">
         <v>1067</v>
       </c>
       <c r="R63" s="5" t="s">
@@ -7395,29 +7420,29 @@
         <v>243</v>
       </c>
       <c r="D64" s="5"/>
-      <c r="E64" s="8" t="s">
+      <c r="E64" s="7" t="s">
         <v>381</v>
       </c>
       <c r="F64" s="5"/>
-      <c r="G64" s="8" t="s">
+      <c r="G64" s="7" t="s">
         <v>515</v>
       </c>
       <c r="H64" s="5"/>
-      <c r="I64" s="8" t="s">
+      <c r="I64" s="7" t="s">
         <v>651</v>
       </c>
       <c r="J64" s="5"/>
-      <c r="K64" s="8" t="s">
+      <c r="K64" s="7" t="s">
         <v>772</v>
       </c>
       <c r="L64" s="5"/>
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
-      <c r="O64" s="8" t="s">
+      <c r="O64" s="7" t="s">
         <v>881</v>
       </c>
       <c r="P64" s="5"/>
-      <c r="Q64" s="8" t="s">
+      <c r="Q64" s="7" t="s">
         <v>1068</v>
       </c>
       <c r="R64" s="5"/>
@@ -7431,31 +7456,31 @@
         <v>244</v>
       </c>
       <c r="D65" s="5"/>
-      <c r="E65" s="8" t="s">
+      <c r="E65" s="7" t="s">
         <v>382</v>
       </c>
       <c r="F65" s="5"/>
-      <c r="G65" s="8" t="s">
+      <c r="G65" s="7" t="s">
         <v>516</v>
       </c>
       <c r="H65" s="5"/>
-      <c r="I65" s="8" t="s">
+      <c r="I65" s="7" t="s">
         <v>652</v>
       </c>
       <c r="J65" s="5"/>
-      <c r="K65" s="8" t="s">
+      <c r="K65" s="7" t="s">
         <v>773</v>
       </c>
       <c r="L65" s="5"/>
       <c r="M65" s="5"/>
       <c r="N65" s="5"/>
-      <c r="O65" s="8" t="s">
+      <c r="O65" s="7" t="s">
         <v>882</v>
       </c>
       <c r="P65" s="5" t="s">
         <v>976</v>
       </c>
-      <c r="Q65" s="8" t="s">
+      <c r="Q65" s="7" t="s">
         <v>1069</v>
       </c>
       <c r="R65" s="5" t="s">
@@ -7471,29 +7496,29 @@
         <v>245</v>
       </c>
       <c r="D66" s="5"/>
-      <c r="E66" s="8" t="s">
+      <c r="E66" s="7" t="s">
         <v>383</v>
       </c>
       <c r="F66" s="5"/>
-      <c r="G66" s="8" t="s">
+      <c r="G66" s="7" t="s">
         <v>517</v>
       </c>
       <c r="H66" s="5"/>
-      <c r="I66" s="8" t="s">
+      <c r="I66" s="7" t="s">
         <v>653</v>
       </c>
       <c r="J66" s="5"/>
-      <c r="K66" s="8" t="s">
+      <c r="K66" s="7" t="s">
         <v>774</v>
       </c>
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
       <c r="N66" s="5"/>
-      <c r="O66" s="8" t="s">
+      <c r="O66" s="7" t="s">
         <v>883</v>
       </c>
       <c r="P66" s="5"/>
-      <c r="Q66" s="8" t="s">
+      <c r="Q66" s="7" t="s">
         <v>1070</v>
       </c>
       <c r="R66" s="5"/>
@@ -7507,31 +7532,31 @@
         <v>246</v>
       </c>
       <c r="D67" s="5"/>
-      <c r="E67" s="8" t="s">
+      <c r="E67" s="7" t="s">
         <v>384</v>
       </c>
       <c r="F67" s="5"/>
-      <c r="G67" s="8" t="s">
+      <c r="G67" s="7" t="s">
         <v>518</v>
       </c>
       <c r="H67" s="5"/>
-      <c r="I67" s="8" t="s">
+      <c r="I67" s="7" t="s">
         <v>654</v>
       </c>
       <c r="J67" s="5"/>
-      <c r="K67" s="8" t="s">
+      <c r="K67" s="7" t="s">
         <v>775</v>
       </c>
       <c r="L67" s="5"/>
       <c r="M67" s="5"/>
       <c r="N67" s="5"/>
-      <c r="O67" s="8" t="s">
+      <c r="O67" s="7" t="s">
         <v>884</v>
       </c>
       <c r="P67" s="5" t="s">
         <v>977</v>
       </c>
-      <c r="Q67" s="8" t="s">
+      <c r="Q67" s="7" t="s">
         <v>1071</v>
       </c>
       <c r="R67" s="5" t="s">
@@ -7547,29 +7572,29 @@
         <v>247</v>
       </c>
       <c r="D68" s="5"/>
-      <c r="E68" s="8" t="s">
+      <c r="E68" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F68" s="5"/>
-      <c r="G68" s="8" t="s">
+      <c r="G68" s="7" t="s">
         <v>519</v>
       </c>
       <c r="H68" s="5"/>
-      <c r="I68" s="8" t="s">
+      <c r="I68" s="7" t="s">
         <v>655</v>
       </c>
       <c r="J68" s="5"/>
-      <c r="K68" s="8" t="s">
+      <c r="K68" s="7" t="s">
         <v>776</v>
       </c>
       <c r="L68" s="5"/>
       <c r="M68" s="5"/>
       <c r="N68" s="5"/>
-      <c r="O68" s="8" t="s">
+      <c r="O68" s="7" t="s">
         <v>885</v>
       </c>
       <c r="P68" s="5"/>
-      <c r="Q68" s="8" t="s">
+      <c r="Q68" s="7" t="s">
         <v>1072</v>
       </c>
       <c r="R68" s="5"/>
@@ -7583,31 +7608,31 @@
         <v>248</v>
       </c>
       <c r="D69" s="5"/>
-      <c r="E69" s="8" t="s">
+      <c r="E69" s="7" t="s">
         <v>386</v>
       </c>
       <c r="F69" s="5"/>
-      <c r="G69" s="8" t="s">
+      <c r="G69" s="7" t="s">
         <v>520</v>
       </c>
       <c r="H69" s="5"/>
-      <c r="I69" s="8" t="s">
+      <c r="I69" s="7" t="s">
         <v>656</v>
       </c>
       <c r="J69" s="5"/>
-      <c r="K69" s="8" t="s">
+      <c r="K69" s="7" t="s">
         <v>777</v>
       </c>
       <c r="L69" s="5"/>
       <c r="M69" s="5"/>
       <c r="N69" s="5"/>
-      <c r="O69" s="8" t="s">
+      <c r="O69" s="7" t="s">
         <v>886</v>
       </c>
       <c r="P69" s="5" t="s">
         <v>978</v>
       </c>
-      <c r="Q69" s="8" t="s">
+      <c r="Q69" s="7" t="s">
         <v>1073</v>
       </c>
       <c r="R69" s="5" t="s">
@@ -7623,29 +7648,29 @@
         <v>249</v>
       </c>
       <c r="D70" s="5"/>
-      <c r="E70" s="8" t="s">
+      <c r="E70" s="7" t="s">
         <v>387</v>
       </c>
       <c r="F70" s="5"/>
-      <c r="G70" s="8" t="s">
+      <c r="G70" s="7" t="s">
         <v>521</v>
       </c>
       <c r="H70" s="5"/>
-      <c r="I70" s="8" t="s">
+      <c r="I70" s="7" t="s">
         <v>657</v>
       </c>
       <c r="J70" s="5"/>
-      <c r="K70" s="8" t="s">
+      <c r="K70" s="7" t="s">
         <v>778</v>
       </c>
       <c r="L70" s="5"/>
       <c r="M70" s="5"/>
       <c r="N70" s="5"/>
-      <c r="O70" s="8" t="s">
+      <c r="O70" s="7" t="s">
         <v>887</v>
       </c>
       <c r="P70" s="5"/>
-      <c r="Q70" s="8" t="s">
+      <c r="Q70" s="7" t="s">
         <v>1074</v>
       </c>
       <c r="R70" s="5"/>
@@ -7659,31 +7684,31 @@
         <v>250</v>
       </c>
       <c r="D71" s="5"/>
-      <c r="E71" s="8" t="s">
+      <c r="E71" s="7" t="s">
         <v>388</v>
       </c>
       <c r="F71" s="5"/>
-      <c r="G71" s="8" t="s">
+      <c r="G71" s="7" t="s">
         <v>522</v>
       </c>
       <c r="H71" s="5"/>
-      <c r="I71" s="8" t="s">
+      <c r="I71" s="7" t="s">
         <v>658</v>
       </c>
       <c r="J71" s="5"/>
-      <c r="K71" s="8" t="s">
+      <c r="K71" s="7" t="s">
         <v>779</v>
       </c>
       <c r="L71" s="5"/>
       <c r="M71" s="5"/>
       <c r="N71" s="5"/>
-      <c r="O71" s="8" t="s">
+      <c r="O71" s="7" t="s">
         <v>888</v>
       </c>
       <c r="P71" s="5" t="s">
         <v>979</v>
       </c>
-      <c r="Q71" s="8" t="s">
+      <c r="Q71" s="7" t="s">
         <v>1075</v>
       </c>
       <c r="R71" s="5" t="s">
@@ -7699,29 +7724,29 @@
         <v>251</v>
       </c>
       <c r="D72" s="5"/>
-      <c r="E72" s="8" t="s">
+      <c r="E72" s="7" t="s">
         <v>389</v>
       </c>
       <c r="F72" s="5"/>
-      <c r="G72" s="8" t="s">
+      <c r="G72" s="7" t="s">
         <v>523</v>
       </c>
       <c r="H72" s="5"/>
-      <c r="I72" s="8" t="s">
+      <c r="I72" s="7" t="s">
         <v>659</v>
       </c>
       <c r="J72" s="5"/>
-      <c r="K72" s="8" t="s">
+      <c r="K72" s="7" t="s">
         <v>780</v>
       </c>
       <c r="L72" s="5"/>
       <c r="M72" s="5"/>
       <c r="N72" s="5"/>
-      <c r="O72" s="8" t="s">
+      <c r="O72" s="7" t="s">
         <v>889</v>
       </c>
       <c r="P72" s="5"/>
-      <c r="Q72" s="8" t="s">
+      <c r="Q72" s="7" t="s">
         <v>1076</v>
       </c>
       <c r="R72" s="5"/>
@@ -7735,31 +7760,31 @@
         <v>252</v>
       </c>
       <c r="D73" s="5"/>
-      <c r="E73" s="8" t="s">
+      <c r="E73" s="7" t="s">
         <v>390</v>
       </c>
       <c r="F73" s="5"/>
-      <c r="G73" s="8" t="s">
+      <c r="G73" s="7" t="s">
         <v>524</v>
       </c>
       <c r="H73" s="5"/>
-      <c r="I73" s="8" t="s">
+      <c r="I73" s="7" t="s">
         <v>660</v>
       </c>
       <c r="J73" s="5"/>
-      <c r="K73" s="8" t="s">
+      <c r="K73" s="7" t="s">
         <v>781</v>
       </c>
       <c r="L73" s="5"/>
       <c r="M73" s="5"/>
       <c r="N73" s="5"/>
-      <c r="O73" s="8" t="s">
+      <c r="O73" s="7" t="s">
         <v>890</v>
       </c>
       <c r="P73" s="5" t="s">
         <v>980</v>
       </c>
-      <c r="Q73" s="8" t="s">
+      <c r="Q73" s="7" t="s">
         <v>1077</v>
       </c>
       <c r="R73" s="5" t="s">
@@ -7775,29 +7800,29 @@
         <v>253</v>
       </c>
       <c r="D74" s="5"/>
-      <c r="E74" s="8" t="s">
+      <c r="E74" s="7" t="s">
         <v>391</v>
       </c>
       <c r="F74" s="5"/>
-      <c r="G74" s="8" t="s">
+      <c r="G74" s="7" t="s">
         <v>525</v>
       </c>
       <c r="H74" s="5"/>
-      <c r="I74" s="8" t="s">
+      <c r="I74" s="7" t="s">
         <v>661</v>
       </c>
       <c r="J74" s="5"/>
-      <c r="K74" s="8" t="s">
+      <c r="K74" s="7" t="s">
         <v>782</v>
       </c>
       <c r="L74" s="5"/>
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
-      <c r="O74" s="8" t="s">
+      <c r="O74" s="7" t="s">
         <v>891</v>
       </c>
       <c r="P74" s="5"/>
-      <c r="Q74" s="8" t="s">
+      <c r="Q74" s="7" t="s">
         <v>1078</v>
       </c>
       <c r="R74" s="5"/>
@@ -7811,31 +7836,31 @@
         <v>254</v>
       </c>
       <c r="D75" s="5"/>
-      <c r="E75" s="8" t="s">
+      <c r="E75" s="7" t="s">
         <v>392</v>
       </c>
       <c r="F75" s="5"/>
-      <c r="G75" s="8" t="s">
+      <c r="G75" s="7" t="s">
         <v>526</v>
       </c>
       <c r="H75" s="5"/>
-      <c r="I75" s="8" t="s">
+      <c r="I75" s="7" t="s">
         <v>662</v>
       </c>
       <c r="J75" s="5"/>
-      <c r="K75" s="8" t="s">
+      <c r="K75" s="7" t="s">
         <v>783</v>
       </c>
       <c r="L75" s="5"/>
       <c r="M75" s="5"/>
       <c r="N75" s="5"/>
-      <c r="O75" s="8" t="s">
+      <c r="O75" s="7" t="s">
         <v>892</v>
       </c>
       <c r="P75" s="5" t="s">
         <v>981</v>
       </c>
-      <c r="Q75" s="8" t="s">
+      <c r="Q75" s="7" t="s">
         <v>1079</v>
       </c>
       <c r="R75" s="5" t="s">
@@ -7851,29 +7876,29 @@
         <v>255</v>
       </c>
       <c r="D76" s="5"/>
-      <c r="E76" s="8" t="s">
+      <c r="E76" s="7" t="s">
         <v>393</v>
       </c>
       <c r="F76" s="5"/>
-      <c r="G76" s="8" t="s">
+      <c r="G76" s="7" t="s">
         <v>527</v>
       </c>
       <c r="H76" s="5"/>
-      <c r="I76" s="8" t="s">
+      <c r="I76" s="7" t="s">
         <v>663</v>
       </c>
       <c r="J76" s="5"/>
-      <c r="K76" s="8" t="s">
+      <c r="K76" s="7" t="s">
         <v>784</v>
       </c>
       <c r="L76" s="5"/>
       <c r="M76" s="5"/>
       <c r="N76" s="5"/>
-      <c r="O76" s="8" t="s">
+      <c r="O76" s="7" t="s">
         <v>893</v>
       </c>
       <c r="P76" s="5"/>
-      <c r="Q76" s="8" t="s">
+      <c r="Q76" s="7" t="s">
         <v>1080</v>
       </c>
       <c r="R76" s="5"/>
@@ -7887,31 +7912,31 @@
         <v>256</v>
       </c>
       <c r="D77" s="5"/>
-      <c r="E77" s="8" t="s">
+      <c r="E77" s="7" t="s">
         <v>394</v>
       </c>
       <c r="F77" s="5"/>
-      <c r="G77" s="8" t="s">
+      <c r="G77" s="7" t="s">
         <v>528</v>
       </c>
       <c r="H77" s="5"/>
-      <c r="I77" s="8" t="s">
+      <c r="I77" s="7" t="s">
         <v>664</v>
       </c>
       <c r="J77" s="5"/>
-      <c r="K77" s="8" t="s">
+      <c r="K77" s="7" t="s">
         <v>785</v>
       </c>
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
       <c r="N77" s="5"/>
-      <c r="O77" s="8" t="s">
+      <c r="O77" s="7" t="s">
         <v>894</v>
       </c>
       <c r="P77" s="5" t="s">
         <v>982</v>
       </c>
-      <c r="Q77" s="8" t="s">
+      <c r="Q77" s="7" t="s">
         <v>1081</v>
       </c>
       <c r="R77" s="5" t="s">
@@ -7927,29 +7952,29 @@
         <v>257</v>
       </c>
       <c r="D78" s="5"/>
-      <c r="E78" s="8" t="s">
+      <c r="E78" s="7" t="s">
         <v>395</v>
       </c>
       <c r="F78" s="5"/>
-      <c r="G78" s="8" t="s">
+      <c r="G78" s="7" t="s">
         <v>529</v>
       </c>
       <c r="H78" s="5"/>
-      <c r="I78" s="8" t="s">
+      <c r="I78" s="7" t="s">
         <v>665</v>
       </c>
       <c r="J78" s="5"/>
-      <c r="K78" s="8" t="s">
+      <c r="K78" s="7" t="s">
         <v>786</v>
       </c>
       <c r="L78" s="5"/>
       <c r="M78" s="5"/>
       <c r="N78" s="5"/>
-      <c r="O78" s="8" t="s">
+      <c r="O78" s="7" t="s">
         <v>895</v>
       </c>
       <c r="P78" s="5"/>
-      <c r="Q78" s="8" t="s">
+      <c r="Q78" s="7" t="s">
         <v>1082</v>
       </c>
       <c r="R78" s="5"/>
@@ -7963,31 +7988,31 @@
         <v>258</v>
       </c>
       <c r="D79" s="5"/>
-      <c r="E79" s="8" t="s">
+      <c r="E79" s="7" t="s">
         <v>396</v>
       </c>
       <c r="F79" s="5"/>
-      <c r="G79" s="8" t="s">
+      <c r="G79" s="7" t="s">
         <v>530</v>
       </c>
       <c r="H79" s="5"/>
-      <c r="I79" s="8" t="s">
+      <c r="I79" s="7" t="s">
         <v>666</v>
       </c>
       <c r="J79" s="5"/>
-      <c r="K79" s="8" t="s">
+      <c r="K79" s="7" t="s">
         <v>787</v>
       </c>
       <c r="L79" s="5"/>
       <c r="M79" s="5"/>
       <c r="N79" s="5"/>
-      <c r="O79" s="8" t="s">
+      <c r="O79" s="7" t="s">
         <v>896</v>
       </c>
       <c r="P79" s="5" t="s">
         <v>983</v>
       </c>
-      <c r="Q79" s="8" t="s">
+      <c r="Q79" s="7" t="s">
         <v>1083</v>
       </c>
       <c r="R79" s="5" t="s">
@@ -8003,29 +8028,29 @@
         <v>259</v>
       </c>
       <c r="D80" s="5"/>
-      <c r="E80" s="8" t="s">
+      <c r="E80" s="7" t="s">
         <v>397</v>
       </c>
       <c r="F80" s="5"/>
-      <c r="G80" s="8" t="s">
+      <c r="G80" s="7" t="s">
         <v>531</v>
       </c>
       <c r="H80" s="5"/>
-      <c r="I80" s="8" t="s">
+      <c r="I80" s="7" t="s">
         <v>667</v>
       </c>
       <c r="J80" s="5"/>
-      <c r="K80" s="8" t="s">
+      <c r="K80" s="7" t="s">
         <v>788</v>
       </c>
       <c r="L80" s="5"/>
       <c r="M80" s="5"/>
       <c r="N80" s="5"/>
-      <c r="O80" s="8" t="s">
+      <c r="O80" s="7" t="s">
         <v>897</v>
       </c>
       <c r="P80" s="5"/>
-      <c r="Q80" s="8" t="s">
+      <c r="Q80" s="7" t="s">
         <v>1084</v>
       </c>
       <c r="R80" s="5"/>
@@ -8039,31 +8064,31 @@
         <v>260</v>
       </c>
       <c r="D81" s="5"/>
-      <c r="E81" s="8" t="s">
+      <c r="E81" s="7" t="s">
         <v>398</v>
       </c>
       <c r="F81" s="5"/>
-      <c r="G81" s="8" t="s">
+      <c r="G81" s="7" t="s">
         <v>532</v>
       </c>
       <c r="H81" s="5"/>
-      <c r="I81" s="8" t="s">
+      <c r="I81" s="7" t="s">
         <v>668</v>
       </c>
       <c r="J81" s="5"/>
-      <c r="K81" s="8" t="s">
+      <c r="K81" s="7" t="s">
         <v>789</v>
       </c>
       <c r="L81" s="5"/>
       <c r="M81" s="5"/>
       <c r="N81" s="5"/>
-      <c r="O81" s="8" t="s">
+      <c r="O81" s="7" t="s">
         <v>898</v>
       </c>
       <c r="P81" s="5" t="s">
         <v>984</v>
       </c>
-      <c r="Q81" s="8" t="s">
+      <c r="Q81" s="7" t="s">
         <v>1085</v>
       </c>
       <c r="R81" s="5" t="s">
@@ -8079,29 +8104,29 @@
         <v>261</v>
       </c>
       <c r="D82" s="5"/>
-      <c r="E82" s="8" t="s">
+      <c r="E82" s="7" t="s">
         <v>399</v>
       </c>
       <c r="F82" s="5"/>
-      <c r="G82" s="8" t="s">
+      <c r="G82" s="7" t="s">
         <v>533</v>
       </c>
       <c r="H82" s="5"/>
-      <c r="I82" s="8" t="s">
+      <c r="I82" s="7" t="s">
         <v>669</v>
       </c>
       <c r="J82" s="5"/>
-      <c r="K82" s="8" t="s">
+      <c r="K82" s="7" t="s">
         <v>790</v>
       </c>
       <c r="L82" s="5"/>
       <c r="M82" s="5"/>
       <c r="N82" s="5"/>
-      <c r="O82" s="8" t="s">
+      <c r="O82" s="7" t="s">
         <v>899</v>
       </c>
       <c r="P82" s="5"/>
-      <c r="Q82" s="8" t="s">
+      <c r="Q82" s="7" t="s">
         <v>1086</v>
       </c>
       <c r="R82" s="5"/>
@@ -8115,31 +8140,31 @@
         <v>262</v>
       </c>
       <c r="D83" s="5"/>
-      <c r="E83" s="8" t="s">
+      <c r="E83" s="7" t="s">
         <v>400</v>
       </c>
       <c r="F83" s="5"/>
-      <c r="G83" s="8" t="s">
+      <c r="G83" s="7" t="s">
         <v>534</v>
       </c>
       <c r="H83" s="5"/>
-      <c r="I83" s="8" t="s">
+      <c r="I83" s="7" t="s">
         <v>670</v>
       </c>
       <c r="J83" s="5"/>
-      <c r="K83" s="8" t="s">
+      <c r="K83" s="7" t="s">
         <v>791</v>
       </c>
       <c r="L83" s="5"/>
       <c r="M83" s="5"/>
       <c r="N83" s="5"/>
-      <c r="O83" s="8" t="s">
+      <c r="O83" s="7" t="s">
         <v>900</v>
       </c>
       <c r="P83" s="5" t="s">
         <v>985</v>
       </c>
-      <c r="Q83" s="8" t="s">
+      <c r="Q83" s="7" t="s">
         <v>1087</v>
       </c>
       <c r="R83" s="5" t="s">
@@ -8155,29 +8180,29 @@
         <v>263</v>
       </c>
       <c r="D84" s="5"/>
-      <c r="E84" s="8" t="s">
+      <c r="E84" s="7" t="s">
         <v>401</v>
       </c>
       <c r="F84" s="5"/>
-      <c r="G84" s="8" t="s">
+      <c r="G84" s="7" t="s">
         <v>535</v>
       </c>
       <c r="H84" s="5"/>
-      <c r="I84" s="8" t="s">
+      <c r="I84" s="7" t="s">
         <v>671</v>
       </c>
       <c r="J84" s="5"/>
-      <c r="K84" s="8" t="s">
+      <c r="K84" s="7" t="s">
         <v>792</v>
       </c>
       <c r="L84" s="5"/>
       <c r="M84" s="5"/>
       <c r="N84" s="5"/>
-      <c r="O84" s="8" t="s">
+      <c r="O84" s="7" t="s">
         <v>901</v>
       </c>
       <c r="P84" s="5"/>
-      <c r="Q84" s="8" t="s">
+      <c r="Q84" s="7" t="s">
         <v>1088</v>
       </c>
       <c r="R84" s="5"/>
@@ -8191,31 +8216,31 @@
         <v>264</v>
       </c>
       <c r="D85" s="5"/>
-      <c r="E85" s="8" t="s">
+      <c r="E85" s="7" t="s">
         <v>402</v>
       </c>
       <c r="F85" s="5"/>
-      <c r="G85" s="8" t="s">
+      <c r="G85" s="7" t="s">
         <v>536</v>
       </c>
       <c r="H85" s="5"/>
-      <c r="I85" s="8" t="s">
+      <c r="I85" s="7" t="s">
         <v>672</v>
       </c>
       <c r="J85" s="5"/>
-      <c r="K85" s="8" t="s">
+      <c r="K85" s="7" t="s">
         <v>793</v>
       </c>
       <c r="L85" s="5"/>
       <c r="M85" s="5"/>
       <c r="N85" s="5"/>
-      <c r="O85" s="8" t="s">
+      <c r="O85" s="7" t="s">
         <v>902</v>
       </c>
       <c r="P85" s="5" t="s">
         <v>986</v>
       </c>
-      <c r="Q85" s="8" t="s">
+      <c r="Q85" s="7" t="s">
         <v>1089</v>
       </c>
       <c r="R85" s="5" t="s">
@@ -8231,29 +8256,29 @@
         <v>265</v>
       </c>
       <c r="D86" s="5"/>
-      <c r="E86" s="8" t="s">
+      <c r="E86" s="7" t="s">
         <v>403</v>
       </c>
       <c r="F86" s="5"/>
-      <c r="G86" s="8" t="s">
+      <c r="G86" s="7" t="s">
         <v>537</v>
       </c>
       <c r="H86" s="5"/>
-      <c r="I86" s="8" t="s">
+      <c r="I86" s="7" t="s">
         <v>673</v>
       </c>
       <c r="J86" s="5"/>
-      <c r="K86" s="8" t="s">
+      <c r="K86" s="7" t="s">
         <v>794</v>
       </c>
       <c r="L86" s="5"/>
       <c r="M86" s="5"/>
       <c r="N86" s="5"/>
-      <c r="O86" s="8" t="s">
+      <c r="O86" s="7" t="s">
         <v>903</v>
       </c>
       <c r="P86" s="5"/>
-      <c r="Q86" s="8" t="s">
+      <c r="Q86" s="7" t="s">
         <v>1090</v>
       </c>
       <c r="R86" s="5"/>
@@ -8267,31 +8292,31 @@
         <v>266</v>
       </c>
       <c r="D87" s="5"/>
-      <c r="E87" s="8" t="s">
+      <c r="E87" s="7" t="s">
         <v>404</v>
       </c>
       <c r="F87" s="5"/>
-      <c r="G87" s="8" t="s">
+      <c r="G87" s="7" t="s">
         <v>538</v>
       </c>
       <c r="H87" s="5"/>
-      <c r="I87" s="8" t="s">
+      <c r="I87" s="7" t="s">
         <v>674</v>
       </c>
       <c r="J87" s="5"/>
-      <c r="K87" s="8" t="s">
+      <c r="K87" s="7" t="s">
         <v>795</v>
       </c>
       <c r="L87" s="5"/>
       <c r="M87" s="5"/>
       <c r="N87" s="5"/>
-      <c r="O87" s="8" t="s">
+      <c r="O87" s="7" t="s">
         <v>904</v>
       </c>
       <c r="P87" s="5" t="s">
         <v>987</v>
       </c>
-      <c r="Q87" s="8" t="s">
+      <c r="Q87" s="7" t="s">
         <v>1091</v>
       </c>
       <c r="R87" s="5" t="s">
@@ -8307,29 +8332,29 @@
         <v>267</v>
       </c>
       <c r="D88" s="5"/>
-      <c r="E88" s="8" t="s">
+      <c r="E88" s="7" t="s">
         <v>405</v>
       </c>
       <c r="F88" s="5"/>
-      <c r="G88" s="8" t="s">
+      <c r="G88" s="7" t="s">
         <v>539</v>
       </c>
       <c r="H88" s="5"/>
-      <c r="I88" s="8" t="s">
+      <c r="I88" s="7" t="s">
         <v>675</v>
       </c>
       <c r="J88" s="5"/>
-      <c r="K88" s="8" t="s">
+      <c r="K88" s="7" t="s">
         <v>796</v>
       </c>
       <c r="L88" s="5"/>
       <c r="M88" s="5"/>
       <c r="N88" s="5"/>
-      <c r="O88" s="8" t="s">
+      <c r="O88" s="7" t="s">
         <v>905</v>
       </c>
       <c r="P88" s="5"/>
-      <c r="Q88" s="8" t="s">
+      <c r="Q88" s="7" t="s">
         <v>1092</v>
       </c>
       <c r="R88" s="5"/>
@@ -8343,31 +8368,31 @@
         <v>268</v>
       </c>
       <c r="D89" s="5"/>
-      <c r="E89" s="8" t="s">
+      <c r="E89" s="7" t="s">
         <v>406</v>
       </c>
       <c r="F89" s="5"/>
-      <c r="G89" s="8" t="s">
+      <c r="G89" s="7" t="s">
         <v>540</v>
       </c>
       <c r="H89" s="5"/>
-      <c r="I89" s="8" t="s">
+      <c r="I89" s="7" t="s">
         <v>676</v>
       </c>
       <c r="J89" s="5"/>
-      <c r="K89" s="8" t="s">
+      <c r="K89" s="7" t="s">
         <v>797</v>
       </c>
       <c r="L89" s="5"/>
       <c r="M89" s="5"/>
       <c r="N89" s="5"/>
-      <c r="O89" s="8" t="s">
+      <c r="O89" s="7" t="s">
         <v>906</v>
       </c>
       <c r="P89" s="5" t="s">
         <v>988</v>
       </c>
-      <c r="Q89" s="8" t="s">
+      <c r="Q89" s="7" t="s">
         <v>1093</v>
       </c>
       <c r="R89" s="5" t="s">
@@ -8383,29 +8408,29 @@
         <v>269</v>
       </c>
       <c r="D90" s="5"/>
-      <c r="E90" s="8" t="s">
+      <c r="E90" s="7" t="s">
         <v>407</v>
       </c>
       <c r="F90" s="5"/>
-      <c r="G90" s="8" t="s">
+      <c r="G90" s="7" t="s">
         <v>541</v>
       </c>
       <c r="H90" s="5"/>
-      <c r="I90" s="8" t="s">
+      <c r="I90" s="7" t="s">
         <v>677</v>
       </c>
       <c r="J90" s="5"/>
-      <c r="K90" s="8" t="s">
+      <c r="K90" s="7" t="s">
         <v>798</v>
       </c>
       <c r="L90" s="5"/>
       <c r="M90" s="5"/>
       <c r="N90" s="5"/>
-      <c r="O90" s="8" t="s">
+      <c r="O90" s="7" t="s">
         <v>907</v>
       </c>
       <c r="P90" s="5"/>
-      <c r="Q90" s="8" t="s">
+      <c r="Q90" s="7" t="s">
         <v>1094</v>
       </c>
       <c r="R90" s="5"/>
@@ -8419,31 +8444,31 @@
         <v>270</v>
       </c>
       <c r="D91" s="5"/>
-      <c r="E91" s="8" t="s">
+      <c r="E91" s="7" t="s">
         <v>408</v>
       </c>
       <c r="F91" s="5"/>
-      <c r="G91" s="8" t="s">
+      <c r="G91" s="7" t="s">
         <v>542</v>
       </c>
       <c r="H91" s="5"/>
-      <c r="I91" s="8" t="s">
+      <c r="I91" s="7" t="s">
         <v>678</v>
       </c>
       <c r="J91" s="5"/>
-      <c r="K91" s="8" t="s">
+      <c r="K91" s="7" t="s">
         <v>799</v>
       </c>
       <c r="L91" s="5"/>
       <c r="M91" s="5"/>
       <c r="N91" s="5"/>
-      <c r="O91" s="8" t="s">
+      <c r="O91" s="7" t="s">
         <v>908</v>
       </c>
       <c r="P91" s="5" t="s">
         <v>989</v>
       </c>
-      <c r="Q91" s="8" t="s">
+      <c r="Q91" s="7" t="s">
         <v>1095</v>
       </c>
       <c r="R91" s="5" t="s">
@@ -8459,29 +8484,29 @@
         <v>271</v>
       </c>
       <c r="D92" s="5"/>
-      <c r="E92" s="8" t="s">
+      <c r="E92" s="7" t="s">
         <v>409</v>
       </c>
       <c r="F92" s="5"/>
-      <c r="G92" s="8" t="s">
+      <c r="G92" s="7" t="s">
         <v>543</v>
       </c>
       <c r="H92" s="5"/>
-      <c r="I92" s="8" t="s">
+      <c r="I92" s="7" t="s">
         <v>679</v>
       </c>
       <c r="J92" s="5"/>
-      <c r="K92" s="8" t="s">
+      <c r="K92" s="7" t="s">
         <v>800</v>
       </c>
       <c r="L92" s="5"/>
       <c r="M92" s="5"/>
       <c r="N92" s="5"/>
-      <c r="O92" s="8" t="s">
+      <c r="O92" s="7" t="s">
         <v>909</v>
       </c>
       <c r="P92" s="5"/>
-      <c r="Q92" s="8" t="s">
+      <c r="Q92" s="7" t="s">
         <v>1096</v>
       </c>
       <c r="R92" s="5"/>
@@ -8495,31 +8520,31 @@
         <v>272</v>
       </c>
       <c r="D93" s="5"/>
-      <c r="E93" s="8" t="s">
+      <c r="E93" s="7" t="s">
         <v>410</v>
       </c>
       <c r="F93" s="5"/>
-      <c r="G93" s="8" t="s">
+      <c r="G93" s="7" t="s">
         <v>544</v>
       </c>
       <c r="H93" s="5"/>
-      <c r="I93" s="8" t="s">
+      <c r="I93" s="7" t="s">
         <v>680</v>
       </c>
       <c r="J93" s="5"/>
-      <c r="K93" s="8" t="s">
+      <c r="K93" s="7" t="s">
         <v>801</v>
       </c>
       <c r="L93" s="5"/>
       <c r="M93" s="5"/>
       <c r="N93" s="5"/>
-      <c r="O93" s="8" t="s">
+      <c r="O93" s="7" t="s">
         <v>910</v>
       </c>
       <c r="P93" s="5" t="s">
         <v>990</v>
       </c>
-      <c r="Q93" s="8" t="s">
+      <c r="Q93" s="7" t="s">
         <v>1097</v>
       </c>
       <c r="R93" s="5" t="s">
@@ -8535,29 +8560,29 @@
         <v>273</v>
       </c>
       <c r="D94" s="5"/>
-      <c r="E94" s="8" t="s">
+      <c r="E94" s="7" t="s">
         <v>411</v>
       </c>
       <c r="F94" s="5"/>
-      <c r="G94" s="8" t="s">
+      <c r="G94" s="7" t="s">
         <v>545</v>
       </c>
       <c r="H94" s="5"/>
-      <c r="I94" s="8" t="s">
+      <c r="I94" s="7" t="s">
         <v>681</v>
       </c>
       <c r="J94" s="5"/>
-      <c r="K94" s="8" t="s">
+      <c r="K94" s="7" t="s">
         <v>802</v>
       </c>
       <c r="L94" s="5"/>
       <c r="M94" s="5"/>
       <c r="N94" s="5"/>
-      <c r="O94" s="8" t="s">
+      <c r="O94" s="7" t="s">
         <v>911</v>
       </c>
       <c r="P94" s="5"/>
-      <c r="Q94" s="8" t="s">
+      <c r="Q94" s="7" t="s">
         <v>1098</v>
       </c>
       <c r="R94" s="5"/>
@@ -8571,31 +8596,31 @@
         <v>274</v>
       </c>
       <c r="D95" s="5"/>
-      <c r="E95" s="8" t="s">
+      <c r="E95" s="7" t="s">
         <v>412</v>
       </c>
       <c r="F95" s="5"/>
-      <c r="G95" s="8" t="s">
+      <c r="G95" s="7" t="s">
         <v>546</v>
       </c>
       <c r="H95" s="5"/>
-      <c r="I95" s="8" t="s">
+      <c r="I95" s="7" t="s">
         <v>682</v>
       </c>
       <c r="J95" s="5"/>
-      <c r="K95" s="8" t="s">
+      <c r="K95" s="7" t="s">
         <v>803</v>
       </c>
       <c r="L95" s="5"/>
       <c r="M95" s="5"/>
       <c r="N95" s="5"/>
-      <c r="O95" s="8" t="s">
+      <c r="O95" s="7" t="s">
         <v>912</v>
       </c>
       <c r="P95" s="5" t="s">
         <v>991</v>
       </c>
-      <c r="Q95" s="8" t="s">
+      <c r="Q95" s="7" t="s">
         <v>1099</v>
       </c>
       <c r="R95" s="5" t="s">
@@ -8611,29 +8636,29 @@
         <v>275</v>
       </c>
       <c r="D96" s="5"/>
-      <c r="E96" s="8" t="s">
+      <c r="E96" s="7" t="s">
         <v>413</v>
       </c>
       <c r="F96" s="5"/>
-      <c r="G96" s="8" t="s">
+      <c r="G96" s="7" t="s">
         <v>547</v>
       </c>
       <c r="H96" s="5"/>
-      <c r="I96" s="8" t="s">
+      <c r="I96" s="7" t="s">
         <v>683</v>
       </c>
       <c r="J96" s="5"/>
-      <c r="K96" s="8" t="s">
+      <c r="K96" s="7" t="s">
         <v>804</v>
       </c>
       <c r="L96" s="5"/>
       <c r="M96" s="5"/>
       <c r="N96" s="5"/>
-      <c r="O96" s="8" t="s">
+      <c r="O96" s="7" t="s">
         <v>913</v>
       </c>
       <c r="P96" s="5"/>
-      <c r="Q96" s="8" t="s">
+      <c r="Q96" s="7" t="s">
         <v>1100</v>
       </c>
       <c r="R96" s="5"/>
@@ -8647,31 +8672,31 @@
         <v>276</v>
       </c>
       <c r="D97" s="5"/>
-      <c r="E97" s="8" t="s">
+      <c r="E97" s="7" t="s">
         <v>414</v>
       </c>
       <c r="F97" s="5"/>
-      <c r="G97" s="8" t="s">
+      <c r="G97" s="7" t="s">
         <v>548</v>
       </c>
       <c r="H97" s="5"/>
-      <c r="I97" s="8" t="s">
+      <c r="I97" s="7" t="s">
         <v>684</v>
       </c>
       <c r="J97" s="5"/>
-      <c r="K97" s="8" t="s">
+      <c r="K97" s="7" t="s">
         <v>805</v>
       </c>
       <c r="L97" s="5"/>
       <c r="M97" s="5"/>
       <c r="N97" s="5"/>
-      <c r="O97" s="8" t="s">
+      <c r="O97" s="7" t="s">
         <v>914</v>
       </c>
       <c r="P97" s="5" t="s">
         <v>992</v>
       </c>
-      <c r="Q97" s="8" t="s">
+      <c r="Q97" s="7" t="s">
         <v>1101</v>
       </c>
       <c r="R97" s="5" t="s">
@@ -8687,29 +8712,29 @@
         <v>277</v>
       </c>
       <c r="D98" s="5"/>
-      <c r="E98" s="8" t="s">
+      <c r="E98" s="7" t="s">
         <v>415</v>
       </c>
       <c r="F98" s="5"/>
-      <c r="G98" s="8" t="s">
+      <c r="G98" s="7" t="s">
         <v>549</v>
       </c>
       <c r="H98" s="5"/>
-      <c r="I98" s="8" t="s">
+      <c r="I98" s="7" t="s">
         <v>685</v>
       </c>
       <c r="J98" s="5"/>
-      <c r="K98" s="8" t="s">
+      <c r="K98" s="7" t="s">
         <v>806</v>
       </c>
       <c r="L98" s="5"/>
       <c r="M98" s="5"/>
       <c r="N98" s="5"/>
-      <c r="O98" s="8" t="s">
+      <c r="O98" s="7" t="s">
         <v>915</v>
       </c>
       <c r="P98" s="5"/>
-      <c r="Q98" s="8" t="s">
+      <c r="Q98" s="7" t="s">
         <v>1102</v>
       </c>
       <c r="R98" s="5"/>
@@ -8723,31 +8748,31 @@
         <v>278</v>
       </c>
       <c r="D99" s="5"/>
-      <c r="E99" s="8" t="s">
+      <c r="E99" s="7" t="s">
         <v>416</v>
       </c>
       <c r="F99" s="5"/>
-      <c r="G99" s="8" t="s">
+      <c r="G99" s="7" t="s">
         <v>550</v>
       </c>
       <c r="H99" s="5"/>
-      <c r="I99" s="8" t="s">
+      <c r="I99" s="7" t="s">
         <v>686</v>
       </c>
       <c r="J99" s="5"/>
-      <c r="K99" s="8" t="s">
+      <c r="K99" s="7" t="s">
         <v>807</v>
       </c>
       <c r="L99" s="5"/>
       <c r="M99" s="5"/>
       <c r="N99" s="5"/>
-      <c r="O99" s="8" t="s">
+      <c r="O99" s="7" t="s">
         <v>916</v>
       </c>
       <c r="P99" s="5" t="s">
         <v>993</v>
       </c>
-      <c r="Q99" s="8" t="s">
+      <c r="Q99" s="7" t="s">
         <v>1103</v>
       </c>
       <c r="R99" s="5" t="s">
@@ -8763,29 +8788,29 @@
         <v>279</v>
       </c>
       <c r="D100" s="5"/>
-      <c r="E100" s="8" t="s">
+      <c r="E100" s="7" t="s">
         <v>417</v>
       </c>
       <c r="F100" s="5"/>
-      <c r="G100" s="8" t="s">
+      <c r="G100" s="7" t="s">
         <v>551</v>
       </c>
       <c r="H100" s="5"/>
-      <c r="I100" s="8" t="s">
+      <c r="I100" s="7" t="s">
         <v>687</v>
       </c>
       <c r="J100" s="5"/>
-      <c r="K100" s="8" t="s">
+      <c r="K100" s="7" t="s">
         <v>808</v>
       </c>
       <c r="L100" s="5"/>
       <c r="M100" s="5"/>
       <c r="N100" s="5"/>
-      <c r="O100" s="8" t="s">
+      <c r="O100" s="7" t="s">
         <v>917</v>
       </c>
       <c r="P100" s="5"/>
-      <c r="Q100" s="8" t="s">
+      <c r="Q100" s="7" t="s">
         <v>1104</v>
       </c>
       <c r="R100" s="5"/>
@@ -8803,27 +8828,27 @@
       <c r="D101" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="E101" s="8" t="s">
+      <c r="E101" s="7" t="s">
         <v>418</v>
       </c>
       <c r="F101" s="5"/>
-      <c r="G101" s="8" t="s">
+      <c r="G101" s="7" t="s">
         <v>552</v>
       </c>
       <c r="H101" s="5"/>
-      <c r="I101" s="8"/>
+      <c r="I101" s="7"/>
       <c r="J101" s="5"/>
-      <c r="K101" s="8"/>
+      <c r="K101" s="7"/>
       <c r="L101" s="5"/>
       <c r="M101" s="5"/>
       <c r="N101" s="5"/>
-      <c r="O101" s="8" t="s">
+      <c r="O101" s="7" t="s">
         <v>918</v>
       </c>
       <c r="P101" s="5" t="s">
         <v>994</v>
       </c>
-      <c r="Q101" s="8" t="s">
+      <c r="Q101" s="7" t="s">
         <v>1105</v>
       </c>
       <c r="R101" s="5" t="s">
@@ -8837,25 +8862,25 @@
         <v>290</v>
       </c>
       <c r="D102" s="5"/>
-      <c r="E102" s="8" t="s">
+      <c r="E102" s="7" t="s">
         <v>419</v>
       </c>
       <c r="F102" s="5"/>
-      <c r="G102" s="8" t="s">
+      <c r="G102" s="7" t="s">
         <v>553</v>
       </c>
       <c r="H102" s="5"/>
-      <c r="I102" s="8"/>
+      <c r="I102" s="7"/>
       <c r="J102" s="5"/>
-      <c r="K102" s="8"/>
+      <c r="K102" s="7"/>
       <c r="L102" s="5"/>
       <c r="M102" s="5"/>
       <c r="N102" s="5"/>
-      <c r="O102" s="8" t="s">
+      <c r="O102" s="7" t="s">
         <v>919</v>
       </c>
       <c r="P102" s="5"/>
-      <c r="Q102" s="8" t="s">
+      <c r="Q102" s="7" t="s">
         <v>1106</v>
       </c>
       <c r="R102" s="5"/>
@@ -8869,27 +8894,27 @@
       <c r="D103" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="E103" s="8" t="s">
+      <c r="E103" s="7" t="s">
         <v>420</v>
       </c>
       <c r="F103" s="5"/>
-      <c r="G103" s="8" t="s">
+      <c r="G103" s="7" t="s">
         <v>554</v>
       </c>
       <c r="H103" s="5"/>
-      <c r="I103" s="8"/>
+      <c r="I103" s="7"/>
       <c r="J103" s="5"/>
-      <c r="K103" s="8"/>
+      <c r="K103" s="7"/>
       <c r="L103" s="5"/>
       <c r="M103" s="5"/>
       <c r="N103" s="5"/>
-      <c r="O103" s="8" t="s">
+      <c r="O103" s="7" t="s">
         <v>920</v>
       </c>
       <c r="P103" s="5" t="s">
         <v>995</v>
       </c>
-      <c r="Q103" s="8" t="s">
+      <c r="Q103" s="7" t="s">
         <v>1107</v>
       </c>
       <c r="R103" s="5" t="s">
@@ -8903,25 +8928,25 @@
         <v>292</v>
       </c>
       <c r="D104" s="5"/>
-      <c r="E104" s="8" t="s">
+      <c r="E104" s="7" t="s">
         <v>421</v>
       </c>
       <c r="F104" s="5"/>
-      <c r="G104" s="8" t="s">
+      <c r="G104" s="7" t="s">
         <v>555</v>
       </c>
       <c r="H104" s="5"/>
-      <c r="I104" s="8"/>
+      <c r="I104" s="7"/>
       <c r="J104" s="5"/>
-      <c r="K104" s="8"/>
+      <c r="K104" s="7"/>
       <c r="L104" s="5"/>
       <c r="M104" s="5"/>
       <c r="N104" s="5"/>
-      <c r="O104" s="8" t="s">
+      <c r="O104" s="7" t="s">
         <v>921</v>
       </c>
       <c r="P104" s="5"/>
-      <c r="Q104" s="8" t="s">
+      <c r="Q104" s="7" t="s">
         <v>1108</v>
       </c>
       <c r="R104" s="5"/>
@@ -8935,27 +8960,27 @@
       <c r="D105" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E105" s="8" t="s">
+      <c r="E105" s="7" t="s">
         <v>422</v>
       </c>
       <c r="F105" s="5"/>
-      <c r="G105" s="8" t="s">
+      <c r="G105" s="7" t="s">
         <v>556</v>
       </c>
       <c r="H105" s="5"/>
-      <c r="I105" s="8"/>
+      <c r="I105" s="7"/>
       <c r="J105" s="5"/>
-      <c r="K105" s="8"/>
+      <c r="K105" s="7"/>
       <c r="L105" s="5"/>
       <c r="M105" s="5"/>
       <c r="N105" s="5"/>
-      <c r="O105" s="8" t="s">
+      <c r="O105" s="7" t="s">
         <v>922</v>
       </c>
       <c r="P105" s="5" t="s">
         <v>996</v>
       </c>
-      <c r="Q105" s="8" t="s">
+      <c r="Q105" s="7" t="s">
         <v>1109</v>
       </c>
       <c r="R105" s="5" t="s">
@@ -8969,25 +8994,25 @@
         <v>294</v>
       </c>
       <c r="D106" s="5"/>
-      <c r="E106" s="8" t="s">
+      <c r="E106" s="7" t="s">
         <v>423</v>
       </c>
       <c r="F106" s="5"/>
-      <c r="G106" s="8" t="s">
+      <c r="G106" s="7" t="s">
         <v>557</v>
       </c>
       <c r="H106" s="5"/>
-      <c r="I106" s="8"/>
+      <c r="I106" s="7"/>
       <c r="J106" s="5"/>
-      <c r="K106" s="8"/>
+      <c r="K106" s="7"/>
       <c r="L106" s="5"/>
       <c r="M106" s="5"/>
       <c r="N106" s="5"/>
-      <c r="O106" s="8" t="s">
+      <c r="O106" s="7" t="s">
         <v>923</v>
       </c>
       <c r="P106" s="5"/>
-      <c r="Q106" s="8" t="s">
+      <c r="Q106" s="7" t="s">
         <v>1110</v>
       </c>
       <c r="R106" s="5"/>
@@ -9001,27 +9026,27 @@
       <c r="D107" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E107" s="8" t="s">
+      <c r="E107" s="7" t="s">
         <v>424</v>
       </c>
       <c r="F107" s="5"/>
-      <c r="G107" s="8" t="s">
+      <c r="G107" s="7" t="s">
         <v>558</v>
       </c>
       <c r="H107" s="5"/>
-      <c r="I107" s="8"/>
+      <c r="I107" s="7"/>
       <c r="J107" s="5"/>
-      <c r="K107" s="8"/>
+      <c r="K107" s="7"/>
       <c r="L107" s="5"/>
       <c r="M107" s="5"/>
       <c r="N107" s="5"/>
-      <c r="O107" s="8" t="s">
+      <c r="O107" s="7" t="s">
         <v>924</v>
       </c>
       <c r="P107" s="5" t="s">
         <v>997</v>
       </c>
-      <c r="Q107" s="8" t="s">
+      <c r="Q107" s="7" t="s">
         <v>1111</v>
       </c>
       <c r="R107" s="5" t="s">
@@ -9035,25 +9060,25 @@
         <v>296</v>
       </c>
       <c r="D108" s="5"/>
-      <c r="E108" s="8" t="s">
+      <c r="E108" s="7" t="s">
         <v>425</v>
       </c>
       <c r="F108" s="5"/>
-      <c r="G108" s="8" t="s">
+      <c r="G108" s="7" t="s">
         <v>559</v>
       </c>
       <c r="H108" s="5"/>
-      <c r="I108" s="8"/>
+      <c r="I108" s="7"/>
       <c r="J108" s="5"/>
-      <c r="K108" s="8"/>
+      <c r="K108" s="7"/>
       <c r="L108" s="5"/>
       <c r="M108" s="5"/>
       <c r="N108" s="5"/>
-      <c r="O108" s="8" t="s">
+      <c r="O108" s="7" t="s">
         <v>925</v>
       </c>
       <c r="P108" s="5"/>
-      <c r="Q108" s="8" t="s">
+      <c r="Q108" s="7" t="s">
         <v>1112</v>
       </c>
       <c r="R108" s="5"/>
@@ -9067,27 +9092,27 @@
       <c r="D109" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E109" s="8" t="s">
+      <c r="E109" s="7" t="s">
         <v>426</v>
       </c>
       <c r="F109" s="5"/>
-      <c r="G109" s="8" t="s">
+      <c r="G109" s="7" t="s">
         <v>560</v>
       </c>
       <c r="H109" s="5"/>
-      <c r="I109" s="8"/>
+      <c r="I109" s="7"/>
       <c r="J109" s="5"/>
-      <c r="K109" s="8"/>
+      <c r="K109" s="7"/>
       <c r="L109" s="5"/>
       <c r="M109" s="5"/>
       <c r="N109" s="5"/>
-      <c r="O109" s="8" t="s">
+      <c r="O109" s="7" t="s">
         <v>926</v>
       </c>
       <c r="P109" s="5" t="s">
         <v>998</v>
       </c>
-      <c r="Q109" s="8" t="s">
+      <c r="Q109" s="7" t="s">
         <v>1113</v>
       </c>
       <c r="R109" s="5" t="s">
@@ -9101,25 +9126,25 @@
         <v>298</v>
       </c>
       <c r="D110" s="5"/>
-      <c r="E110" s="8" t="s">
+      <c r="E110" s="7" t="s">
         <v>427</v>
       </c>
       <c r="F110" s="5"/>
-      <c r="G110" s="8" t="s">
+      <c r="G110" s="7" t="s">
         <v>561</v>
       </c>
       <c r="H110" s="5"/>
-      <c r="I110" s="8"/>
+      <c r="I110" s="7"/>
       <c r="J110" s="5"/>
-      <c r="K110" s="8"/>
+      <c r="K110" s="7"/>
       <c r="L110" s="5"/>
       <c r="M110" s="5"/>
       <c r="N110" s="5"/>
-      <c r="O110" s="8" t="s">
+      <c r="O110" s="7" t="s">
         <v>927</v>
       </c>
       <c r="P110" s="5"/>
-      <c r="Q110" s="8" t="s">
+      <c r="Q110" s="7" t="s">
         <v>1114</v>
       </c>
       <c r="R110" s="5"/>
@@ -9133,27 +9158,27 @@
       <c r="D111" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E111" s="8" t="s">
+      <c r="E111" s="7" t="s">
         <v>428</v>
       </c>
       <c r="F111" s="5"/>
-      <c r="G111" s="8" t="s">
+      <c r="G111" s="7" t="s">
         <v>562</v>
       </c>
       <c r="H111" s="5"/>
-      <c r="I111" s="8"/>
+      <c r="I111" s="7"/>
       <c r="J111" s="5"/>
-      <c r="K111" s="8"/>
+      <c r="K111" s="7"/>
       <c r="L111" s="5"/>
       <c r="M111" s="5"/>
       <c r="N111" s="5"/>
-      <c r="O111" s="8" t="s">
+      <c r="O111" s="7" t="s">
         <v>928</v>
       </c>
       <c r="P111" s="5" t="s">
         <v>999</v>
       </c>
-      <c r="Q111" s="8" t="s">
+      <c r="Q111" s="7" t="s">
         <v>1115</v>
       </c>
       <c r="R111" s="5" t="s">
@@ -9167,25 +9192,25 @@
         <v>300</v>
       </c>
       <c r="D112" s="5"/>
-      <c r="E112" s="8" t="s">
+      <c r="E112" s="7" t="s">
         <v>429</v>
       </c>
       <c r="F112" s="5"/>
-      <c r="G112" s="8" t="s">
+      <c r="G112" s="7" t="s">
         <v>563</v>
       </c>
       <c r="H112" s="5"/>
-      <c r="I112" s="8"/>
+      <c r="I112" s="7"/>
       <c r="J112" s="5"/>
-      <c r="K112" s="8"/>
+      <c r="K112" s="7"/>
       <c r="L112" s="5"/>
       <c r="M112" s="5"/>
       <c r="N112" s="5"/>
-      <c r="O112" s="8" t="s">
+      <c r="O112" s="7" t="s">
         <v>929</v>
       </c>
       <c r="P112" s="5"/>
-      <c r="Q112" s="8" t="s">
+      <c r="Q112" s="7" t="s">
         <v>1116</v>
       </c>
       <c r="R112" s="5"/>
@@ -9199,27 +9224,27 @@
       <c r="D113" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="E113" s="8" t="s">
+      <c r="E113" s="7" t="s">
         <v>430</v>
       </c>
       <c r="F113" s="5"/>
-      <c r="G113" s="8" t="s">
+      <c r="G113" s="7" t="s">
         <v>564</v>
       </c>
       <c r="H113" s="5"/>
-      <c r="I113" s="8"/>
+      <c r="I113" s="7"/>
       <c r="J113" s="5"/>
-      <c r="K113" s="8"/>
+      <c r="K113" s="7"/>
       <c r="L113" s="5"/>
       <c r="M113" s="5"/>
       <c r="N113" s="5"/>
-      <c r="O113" s="8" t="s">
+      <c r="O113" s="7" t="s">
         <v>930</v>
       </c>
       <c r="P113" s="5" t="s">
         <v>1000</v>
       </c>
-      <c r="Q113" s="8" t="s">
+      <c r="Q113" s="7" t="s">
         <v>1117</v>
       </c>
       <c r="R113" s="5" t="s">
@@ -9233,25 +9258,25 @@
         <v>302</v>
       </c>
       <c r="D114" s="5"/>
-      <c r="E114" s="8" t="s">
+      <c r="E114" s="7" t="s">
         <v>431</v>
       </c>
       <c r="F114" s="5"/>
-      <c r="G114" s="8" t="s">
+      <c r="G114" s="7" t="s">
         <v>565</v>
       </c>
       <c r="H114" s="5"/>
-      <c r="I114" s="8"/>
+      <c r="I114" s="7"/>
       <c r="J114" s="5"/>
-      <c r="K114" s="8"/>
+      <c r="K114" s="7"/>
       <c r="L114" s="5"/>
       <c r="M114" s="5"/>
       <c r="N114" s="5"/>
-      <c r="O114" s="8" t="s">
+      <c r="O114" s="7" t="s">
         <v>931</v>
       </c>
       <c r="P114" s="5"/>
-      <c r="Q114" s="8" t="s">
+      <c r="Q114" s="7" t="s">
         <v>1118</v>
       </c>
       <c r="R114" s="5"/>
@@ -9265,27 +9290,27 @@
       <c r="D115" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="E115" s="8" t="s">
+      <c r="E115" s="7" t="s">
         <v>432</v>
       </c>
       <c r="F115" s="5"/>
-      <c r="G115" s="8" t="s">
+      <c r="G115" s="7" t="s">
         <v>566</v>
       </c>
       <c r="H115" s="5"/>
-      <c r="I115" s="8"/>
+      <c r="I115" s="7"/>
       <c r="J115" s="5"/>
-      <c r="K115" s="8"/>
+      <c r="K115" s="7"/>
       <c r="L115" s="5"/>
       <c r="M115" s="5"/>
       <c r="N115" s="5"/>
-      <c r="O115" s="8" t="s">
+      <c r="O115" s="7" t="s">
         <v>932</v>
       </c>
       <c r="P115" s="5" t="s">
         <v>1001</v>
       </c>
-      <c r="Q115" s="8" t="s">
+      <c r="Q115" s="7" t="s">
         <v>1119</v>
       </c>
       <c r="R115" s="5" t="s">
@@ -9299,25 +9324,25 @@
         <v>304</v>
       </c>
       <c r="D116" s="5"/>
-      <c r="E116" s="8" t="s">
+      <c r="E116" s="7" t="s">
         <v>433</v>
       </c>
       <c r="F116" s="5"/>
-      <c r="G116" s="8" t="s">
+      <c r="G116" s="7" t="s">
         <v>567</v>
       </c>
       <c r="H116" s="5"/>
-      <c r="I116" s="8"/>
+      <c r="I116" s="7"/>
       <c r="J116" s="5"/>
-      <c r="K116" s="8"/>
+      <c r="K116" s="7"/>
       <c r="L116" s="5"/>
       <c r="M116" s="5"/>
       <c r="N116" s="5"/>
-      <c r="O116" s="8" t="s">
+      <c r="O116" s="7" t="s">
         <v>933</v>
       </c>
       <c r="P116" s="5"/>
-      <c r="Q116" s="8" t="s">
+      <c r="Q116" s="7" t="s">
         <v>1120</v>
       </c>
       <c r="R116" s="5"/>
@@ -9331,27 +9356,27 @@
       <c r="D117" s="5" t="s">
         <v>691</v>
       </c>
-      <c r="E117" s="8" t="s">
+      <c r="E117" s="7" t="s">
         <v>434</v>
       </c>
       <c r="F117" s="5"/>
-      <c r="G117" s="8" t="s">
+      <c r="G117" s="7" t="s">
         <v>568</v>
       </c>
       <c r="H117" s="5"/>
-      <c r="I117" s="8"/>
+      <c r="I117" s="7"/>
       <c r="J117" s="5"/>
-      <c r="K117" s="8"/>
+      <c r="K117" s="7"/>
       <c r="L117" s="5"/>
       <c r="M117" s="5"/>
       <c r="N117" s="5"/>
-      <c r="O117" s="8" t="s">
+      <c r="O117" s="7" t="s">
         <v>934</v>
       </c>
       <c r="P117" s="5" t="s">
         <v>1002</v>
       </c>
-      <c r="Q117" s="8" t="s">
+      <c r="Q117" s="7" t="s">
         <v>1121</v>
       </c>
       <c r="R117" s="5" t="s">
@@ -9365,25 +9390,25 @@
         <v>306</v>
       </c>
       <c r="D118" s="5"/>
-      <c r="E118" s="8" t="s">
+      <c r="E118" s="7" t="s">
         <v>435</v>
       </c>
       <c r="F118" s="5"/>
-      <c r="G118" s="8" t="s">
+      <c r="G118" s="7" t="s">
         <v>569</v>
       </c>
       <c r="H118" s="5"/>
-      <c r="I118" s="8"/>
+      <c r="I118" s="7"/>
       <c r="J118" s="5"/>
-      <c r="K118" s="8"/>
+      <c r="K118" s="7"/>
       <c r="L118" s="5"/>
       <c r="M118" s="5"/>
       <c r="N118" s="5"/>
-      <c r="O118" s="8" t="s">
+      <c r="O118" s="7" t="s">
         <v>935</v>
       </c>
       <c r="P118" s="5"/>
-      <c r="Q118" s="8" t="s">
+      <c r="Q118" s="7" t="s">
         <v>1122</v>
       </c>
       <c r="R118" s="5"/>
@@ -9395,27 +9420,27 @@
         <v>307</v>
       </c>
       <c r="D119" s="5"/>
-      <c r="E119" s="8" t="s">
+      <c r="E119" s="7" t="s">
         <v>436</v>
       </c>
       <c r="F119" s="5"/>
-      <c r="G119" s="8" t="s">
+      <c r="G119" s="7" t="s">
         <v>570</v>
       </c>
       <c r="H119" s="5"/>
-      <c r="I119" s="8"/>
+      <c r="I119" s="7"/>
       <c r="J119" s="5"/>
-      <c r="K119" s="8"/>
+      <c r="K119" s="7"/>
       <c r="L119" s="5"/>
       <c r="M119" s="5"/>
       <c r="N119" s="5"/>
-      <c r="O119" s="8" t="s">
+      <c r="O119" s="7" t="s">
         <v>936</v>
       </c>
       <c r="P119" s="5" t="s">
         <v>1003</v>
       </c>
-      <c r="Q119" s="8" t="s">
+      <c r="Q119" s="7" t="s">
         <v>1123</v>
       </c>
       <c r="R119" s="5" t="s">
@@ -9429,25 +9454,25 @@
         <v>308</v>
       </c>
       <c r="D120" s="5"/>
-      <c r="E120" s="8" t="s">
+      <c r="E120" s="7" t="s">
         <v>437</v>
       </c>
       <c r="F120" s="5"/>
-      <c r="G120" s="8" t="s">
+      <c r="G120" s="7" t="s">
         <v>571</v>
       </c>
       <c r="H120" s="5"/>
-      <c r="I120" s="8"/>
+      <c r="I120" s="7"/>
       <c r="J120" s="5"/>
-      <c r="K120" s="8"/>
+      <c r="K120" s="7"/>
       <c r="L120" s="5"/>
       <c r="M120" s="5"/>
       <c r="N120" s="5"/>
-      <c r="O120" s="8" t="s">
+      <c r="O120" s="7" t="s">
         <v>937</v>
       </c>
       <c r="P120" s="5"/>
-      <c r="Q120" s="8" t="s">
+      <c r="Q120" s="7" t="s">
         <v>1124</v>
       </c>
       <c r="R120" s="5"/>
@@ -9459,25 +9484,25 @@
         <v>309</v>
       </c>
       <c r="D121" s="5"/>
-      <c r="E121" s="8" t="s">
+      <c r="E121" s="7" t="s">
         <v>438</v>
       </c>
       <c r="F121" s="5"/>
-      <c r="G121" s="8" t="s">
+      <c r="G121" s="7" t="s">
         <v>572</v>
       </c>
       <c r="H121" s="5"/>
-      <c r="I121" s="8"/>
+      <c r="I121" s="7"/>
       <c r="J121" s="5"/>
-      <c r="K121" s="8"/>
+      <c r="K121" s="7"/>
       <c r="L121" s="5"/>
       <c r="M121" s="5"/>
       <c r="N121" s="5"/>
-      <c r="O121" s="8" t="s">
+      <c r="O121" s="7" t="s">
         <v>938</v>
       </c>
       <c r="P121" s="5"/>
-      <c r="Q121" s="8" t="s">
+      <c r="Q121" s="7" t="s">
         <v>1125</v>
       </c>
       <c r="R121" s="5"/>
@@ -9489,25 +9514,25 @@
         <v>310</v>
       </c>
       <c r="D122" s="5"/>
-      <c r="E122" s="8" t="s">
+      <c r="E122" s="7" t="s">
         <v>439</v>
       </c>
       <c r="F122" s="5"/>
-      <c r="G122" s="8" t="s">
+      <c r="G122" s="7" t="s">
         <v>573</v>
       </c>
       <c r="H122" s="5"/>
-      <c r="I122" s="8"/>
+      <c r="I122" s="7"/>
       <c r="J122" s="5"/>
-      <c r="K122" s="8"/>
+      <c r="K122" s="7"/>
       <c r="L122" s="5"/>
       <c r="M122" s="5"/>
       <c r="N122" s="5"/>
-      <c r="O122" s="8" t="s">
+      <c r="O122" s="7" t="s">
         <v>939</v>
       </c>
       <c r="P122" s="5"/>
-      <c r="Q122" s="8" t="s">
+      <c r="Q122" s="7" t="s">
         <v>1126</v>
       </c>
       <c r="R122" s="5"/>
@@ -9519,25 +9544,25 @@
         <v>311</v>
       </c>
       <c r="D123" s="5"/>
-      <c r="E123" s="8" t="s">
+      <c r="E123" s="7" t="s">
         <v>440</v>
       </c>
       <c r="F123" s="5"/>
-      <c r="G123" s="8" t="s">
+      <c r="G123" s="7" t="s">
         <v>574</v>
       </c>
       <c r="H123" s="5"/>
-      <c r="I123" s="8"/>
+      <c r="I123" s="7"/>
       <c r="J123" s="5"/>
-      <c r="K123" s="8"/>
+      <c r="K123" s="7"/>
       <c r="L123" s="5"/>
       <c r="M123" s="5"/>
       <c r="N123" s="5"/>
-      <c r="O123" s="8" t="s">
+      <c r="O123" s="7" t="s">
         <v>940</v>
       </c>
       <c r="P123" s="5"/>
-      <c r="Q123" s="8" t="s">
+      <c r="Q123" s="7" t="s">
         <v>1127</v>
       </c>
       <c r="R123" s="5"/>
@@ -9549,25 +9574,25 @@
         <v>312</v>
       </c>
       <c r="D124" s="5"/>
-      <c r="E124" s="8" t="s">
+      <c r="E124" s="7" t="s">
         <v>441</v>
       </c>
       <c r="F124" s="5"/>
-      <c r="G124" s="8" t="s">
+      <c r="G124" s="7" t="s">
         <v>575</v>
       </c>
       <c r="H124" s="5"/>
-      <c r="I124" s="8"/>
+      <c r="I124" s="7"/>
       <c r="J124" s="5"/>
-      <c r="K124" s="8"/>
+      <c r="K124" s="7"/>
       <c r="L124" s="5"/>
       <c r="M124" s="5"/>
       <c r="N124" s="5"/>
-      <c r="O124" s="8" t="s">
+      <c r="O124" s="7" t="s">
         <v>941</v>
       </c>
       <c r="P124" s="5"/>
-      <c r="Q124" s="8" t="s">
+      <c r="Q124" s="7" t="s">
         <v>1128</v>
       </c>
       <c r="R124" s="5"/>
@@ -9579,25 +9604,25 @@
         <v>313</v>
       </c>
       <c r="D125" s="5"/>
-      <c r="E125" s="8" t="s">
+      <c r="E125" s="7" t="s">
         <v>442</v>
       </c>
       <c r="F125" s="5"/>
-      <c r="G125" s="8" t="s">
+      <c r="G125" s="7" t="s">
         <v>576</v>
       </c>
       <c r="H125" s="5"/>
-      <c r="I125" s="8"/>
+      <c r="I125" s="7"/>
       <c r="J125" s="5"/>
-      <c r="K125" s="8"/>
+      <c r="K125" s="7"/>
       <c r="L125" s="5"/>
       <c r="M125" s="5"/>
       <c r="N125" s="5"/>
-      <c r="O125" s="8" t="s">
+      <c r="O125" s="7" t="s">
         <v>942</v>
       </c>
       <c r="P125" s="5"/>
-      <c r="Q125" s="8" t="s">
+      <c r="Q125" s="7" t="s">
         <v>1129</v>
       </c>
       <c r="R125" s="5"/>
@@ -9609,28 +9634,123 @@
         <v>314</v>
       </c>
       <c r="D126" s="5"/>
-      <c r="E126" s="8" t="s">
+      <c r="E126" s="7" t="s">
         <v>443</v>
       </c>
       <c r="F126" s="5"/>
-      <c r="G126" s="8" t="s">
+      <c r="G126" s="7" t="s">
         <v>577</v>
       </c>
       <c r="H126" s="5"/>
-      <c r="I126" s="8"/>
+      <c r="I126" s="7"/>
       <c r="J126" s="5"/>
-      <c r="K126" s="8"/>
+      <c r="K126" s="7"/>
       <c r="L126" s="5"/>
       <c r="M126" s="5"/>
       <c r="N126" s="5"/>
-      <c r="O126" s="8" t="s">
+      <c r="O126" s="7" t="s">
         <v>943</v>
       </c>
       <c r="P126" s="5"/>
-      <c r="Q126" s="8" t="s">
+      <c r="Q126" s="7" t="s">
         <v>1130</v>
       </c>
       <c r="R126" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="5" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B1" s="5">
+        <v>75</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5">
+        <f>B1*100/5</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="5" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B2" s="5">
+        <v>10000</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5">
+        <f>B2*100/5</f>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="5" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B3" s="5">
+        <f>10*B2</f>
+        <v>100000</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="F14">
+        <f>B2/75</f>
+        <v>133.33333333333334</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/X-RAY打点机项目.xlsx
+++ b/X-RAY打点机项目.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IO表" sheetId="1" r:id="rId1"/>
     <sheet name="编程规划" sheetId="2" r:id="rId2"/>
     <sheet name="1" sheetId="3" r:id="rId3"/>
     <sheet name="电机参数" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="1643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1782" uniqueCount="1649">
   <si>
     <t>序号</t>
   </si>
@@ -5105,6 +5106,30 @@
   </si>
   <si>
     <t>后续工站准备好</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制条码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复扫码等待</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>传送带调试</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5212,11 +5237,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5640,7 +5665,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5653,22 +5678,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -6051,7 +6076,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A46:G50"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
@@ -6156,7 +6181,7 @@
   <dimension ref="A1:X126"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6799,7 +6824,9 @@
       <c r="O10" s="7" t="s">
         <v>1188</v>
       </c>
-      <c r="P10" s="5"/>
+      <c r="P10" s="5" t="s">
+        <v>1646</v>
+      </c>
       <c r="Q10" s="7" t="s">
         <v>817</v>
       </c>
@@ -6919,7 +6946,9 @@
       <c r="K12" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="L12" s="5"/>
+      <c r="L12" s="5" t="s">
+        <v>1648</v>
+      </c>
       <c r="M12" s="7" t="s">
         <v>712</v>
       </c>
@@ -7031,7 +7060,9 @@
       <c r="M14" s="7" t="s">
         <v>714</v>
       </c>
-      <c r="N14" s="5"/>
+      <c r="N14" s="5" t="s">
+        <v>1647</v>
+      </c>
       <c r="O14" s="7" t="s">
         <v>1192</v>
       </c>
@@ -8253,17 +8284,17 @@
       </c>
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="10" t="s">
+      <c r="P37" s="8"/>
+      <c r="Q37" s="9" t="s">
         <v>844</v>
       </c>
-      <c r="R37" s="9" t="s">
+      <c r="R37" s="8" t="s">
         <v>952</v>
       </c>
-      <c r="S37" s="10" t="s">
+      <c r="S37" s="9" t="s">
         <v>1031</v>
       </c>
-      <c r="T37" s="9" t="s">
+      <c r="T37" s="8" t="s">
         <v>1138</v>
       </c>
       <c r="U37" s="7" t="s">
@@ -12840,7 +12871,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12929,4 +12960,513 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="5" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>100.24/0.0075+B2/0.0075</f>
+        <v>13365.333333333334</v>
+      </c>
+      <c r="E2">
+        <f>305.2/0.0075+C2/0.0075</f>
+        <v>40693.333333333336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>45.72</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D26" si="0">100.24/0.0075+B3/0.0075</f>
+        <v>13365.333333333334</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E26" si="1">305.2/0.0075+C3/0.0075</f>
+        <v>46789.333333333336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>91.44</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>13365.333333333334</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>52885.333333333336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>137.16</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>13365.333333333334</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>58981.333333333336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>182.88</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>13365.333333333334</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>65077.333333333336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>-26.71</v>
+      </c>
+      <c r="C7" s="5">
+        <v>-34.11</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>9804</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>36145.333333333336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>-26.71</v>
+      </c>
+      <c r="C8" s="5">
+        <v>11.61</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>9804</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>42241.333333333336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
+        <v>-26.71</v>
+      </c>
+      <c r="C9" s="5">
+        <v>57.33</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>9804</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>48337.333333333336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5">
+        <v>-26.71</v>
+      </c>
+      <c r="C10" s="5">
+        <v>103.05</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>9804</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>54433.333333333336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
+        <v>-26.71</v>
+      </c>
+      <c r="C11" s="5">
+        <v>148.76999999999998</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>9804</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>60529.333333333336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5">
+        <v>44.91</v>
+      </c>
+      <c r="C12" s="5">
+        <v>148.76999999999998</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>19353.333333333336</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>60529.333333333336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5">
+        <v>44.91</v>
+      </c>
+      <c r="C13" s="5">
+        <v>103.05</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>19353.333333333336</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>54433.333333333336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5">
+        <v>44.91</v>
+      </c>
+      <c r="C14" s="5">
+        <v>57.33</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>19353.333333333336</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>48337.333333333336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5">
+        <v>44.91</v>
+      </c>
+      <c r="C15" s="5">
+        <v>11.61</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>19353.333333333336</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>42241.333333333336</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5">
+        <v>44.91</v>
+      </c>
+      <c r="C16" s="5">
+        <v>-34.11</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>19353.333333333336</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>36145.333333333336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5">
+        <v>71.62</v>
+      </c>
+      <c r="C17" s="5">
+        <v>182.88</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>22914.666666666668</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>65077.333333333336</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5">
+        <v>71.62</v>
+      </c>
+      <c r="C18" s="5">
+        <v>137.16</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>22914.666666666668</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>58981.333333333336</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5">
+        <v>71.62</v>
+      </c>
+      <c r="C19" s="5">
+        <v>91.44</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>22914.666666666668</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>52885.333333333336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5">
+        <v>71.62</v>
+      </c>
+      <c r="C20" s="5">
+        <v>45.72</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>22914.666666666668</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>46789.333333333336</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5">
+        <v>71.62</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>22914.666666666668</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>40693.333333333336</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5">
+        <v>20</v>
+      </c>
+      <c r="C22" s="5">
+        <v>120</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>16032</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>56693.333333333336</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5">
+        <v>21</v>
+      </c>
+      <c r="C23" s="5">
+        <v>121</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>16165.333333333334</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>56826.666666666672</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5">
+        <v>22</v>
+      </c>
+      <c r="C24" s="5">
+        <v>122</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>16298.666666666668</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>56960</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5">
+        <v>23</v>
+      </c>
+      <c r="C25" s="5">
+        <v>123</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>16432</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>57093.333333333336</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5">
+        <v>24</v>
+      </c>
+      <c r="C26" s="5">
+        <v>124</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>16565.333333333336</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>57226.666666666672</v>
+      </c>
+    </row>
+    <row r="35" spans="8:8">
+      <c r="H35">
+        <f>1/0.0075</f>
+        <v>133.33333333333334</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>